--- a/ICIS data/TE WLA 2020 CTNY Master File_AH edits.xlsx
+++ b/ICIS data/TE WLA 2020 CTNY Master File_AH edits.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahuddell\GitHub\N-loading\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahuddell\GitHub\N-loading\ICIS data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94C309C8-87E5-4EE5-B3DE-7925E236DBB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FC667B-F6E4-4E12-B13A-EFB733D536A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28710" yWindow="-4650" windowWidth="14145" windowHeight="15885" tabRatio="607" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16005" yWindow="-4590" windowWidth="15375" windowHeight="7875" tabRatio="607" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CT &amp; NY" sheetId="2" r:id="rId1"/>
@@ -366,7 +366,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="301">
   <si>
     <t>Zone</t>
   </si>
@@ -992,9 +992,6 @@
     <t>CT0101184</t>
   </si>
   <si>
-    <t>Other potential NPDES ID?</t>
-  </si>
-  <si>
     <t>CT0101681</t>
   </si>
   <si>
@@ -1269,6 +1266,9 @@
   </si>
   <si>
     <t>CT0100382</t>
+  </si>
+  <si>
+    <t>Missing from ECHO/LIS clip dataset</t>
   </si>
 </sst>
 </file>
@@ -2292,138 +2292,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2503,47 +2371,20 @@
     <xf numFmtId="0" fontId="30" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2555,6 +2396,165 @@
     <xf numFmtId="1" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2920,9 +2920,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BW128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L93" sqref="L93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2995,7 +2995,7 @@
       <c r="B2" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="271"/>
+      <c r="C2" s="227"/>
       <c r="D2" s="136" t="s">
         <v>166</v>
       </c>
@@ -3011,17 +3011,17 @@
       <c r="H2" s="131" t="s">
         <v>103</v>
       </c>
-      <c r="I2" s="282"/>
-      <c r="J2" s="298" t="s">
+      <c r="I2" s="238"/>
+      <c r="J2" s="254" t="s">
         <v>198</v>
       </c>
-      <c r="K2" s="298" t="s">
+      <c r="K2" s="254" t="s">
         <v>202</v>
       </c>
-      <c r="L2" s="299" t="s">
-        <v>208</v>
-      </c>
-      <c r="N2" s="290"/>
+      <c r="L2" s="255" t="s">
+        <v>300</v>
+      </c>
+      <c r="N2" s="246"/>
       <c r="P2" s="129" t="s">
         <v>158</v>
       </c>
@@ -3202,7 +3202,7 @@
     <row r="3" spans="1:75" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="44"/>
       <c r="B3" s="43"/>
-      <c r="C3" s="272"/>
+      <c r="C3" s="228"/>
       <c r="D3" s="53" t="s">
         <v>116</v>
       </c>
@@ -3210,11 +3210,11 @@
       <c r="F3" s="45"/>
       <c r="G3" s="66"/>
       <c r="H3" s="46"/>
-      <c r="I3" s="283"/>
-      <c r="J3" s="300"/>
-      <c r="K3" s="276"/>
-      <c r="L3" s="301"/>
-      <c r="N3" s="291"/>
+      <c r="I3" s="239"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="232"/>
+      <c r="L3" s="257"/>
+      <c r="N3" s="247"/>
       <c r="P3" s="65"/>
       <c r="Q3" s="113"/>
       <c r="R3" s="65"/>
@@ -3300,15 +3300,15 @@
       <c r="H4" s="8">
         <v>99</v>
       </c>
-      <c r="I4" s="284"/>
-      <c r="J4" s="302" t="s">
+      <c r="I4" s="240"/>
+      <c r="J4" s="258" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="303" t="s">
+      <c r="K4" s="259" t="s">
         <v>207</v>
       </c>
-      <c r="L4" s="304"/>
-      <c r="N4" s="273"/>
+      <c r="L4" s="260"/>
+      <c r="N4" s="229"/>
       <c r="P4" s="49">
         <f t="shared" ref="P4:P35" si="1">PRODUCT(E4,H4)</f>
         <v>16.830000000000002</v>
@@ -3536,15 +3536,17 @@
       <c r="H5" s="8">
         <v>153</v>
       </c>
-      <c r="I5" s="284"/>
-      <c r="J5" s="302" t="s">
+      <c r="I5" s="240"/>
+      <c r="J5" s="258" t="s">
         <v>199</v>
       </c>
-      <c r="K5" s="350" t="s">
+      <c r="K5" s="297" t="s">
         <v>197</v>
       </c>
-      <c r="L5" s="304"/>
-      <c r="N5" s="273"/>
+      <c r="L5" s="260" t="s">
+        <v>200</v>
+      </c>
+      <c r="N5" s="229"/>
       <c r="O5" s="8"/>
       <c r="P5" s="49">
         <f t="shared" si="1"/>
@@ -3772,15 +3774,15 @@
       <c r="H6" s="8">
         <v>7</v>
       </c>
-      <c r="I6" s="284"/>
-      <c r="J6" s="302" t="s">
+      <c r="I6" s="240"/>
+      <c r="J6" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K6" s="303" t="s">
-        <v>209</v>
-      </c>
-      <c r="L6" s="304"/>
-      <c r="N6" s="273"/>
+      <c r="K6" s="259" t="s">
+        <v>208</v>
+      </c>
+      <c r="L6" s="260"/>
+      <c r="N6" s="229"/>
       <c r="O6" s="8"/>
       <c r="P6" s="49">
         <f t="shared" si="1"/>
@@ -4008,15 +4010,15 @@
       <c r="H7" s="18">
         <v>118</v>
       </c>
-      <c r="I7" s="285"/>
-      <c r="J7" s="305" t="s">
+      <c r="I7" s="241"/>
+      <c r="J7" s="261" t="s">
         <v>200</v>
       </c>
-      <c r="K7" s="303" t="s">
-        <v>211</v>
-      </c>
-      <c r="L7" s="304"/>
-      <c r="N7" s="273"/>
+      <c r="K7" s="259" t="s">
+        <v>210</v>
+      </c>
+      <c r="L7" s="260"/>
+      <c r="N7" s="229"/>
       <c r="O7" s="18"/>
       <c r="P7" s="49">
         <f t="shared" si="1"/>
@@ -4244,15 +4246,15 @@
       <c r="H8" s="8">
         <v>386</v>
       </c>
-      <c r="I8" s="284"/>
-      <c r="J8" s="302" t="s">
+      <c r="I8" s="240"/>
+      <c r="J8" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K8" s="350" t="s">
-        <v>300</v>
-      </c>
-      <c r="L8" s="306"/>
-      <c r="N8" s="292"/>
+      <c r="K8" s="297" t="s">
+        <v>299</v>
+      </c>
+      <c r="L8" s="262"/>
+      <c r="N8" s="248"/>
       <c r="O8" s="8"/>
       <c r="P8" s="49">
         <f t="shared" si="1"/>
@@ -4480,15 +4482,15 @@
       <c r="H9" s="8">
         <v>201</v>
       </c>
-      <c r="I9" s="284"/>
-      <c r="J9" s="302" t="s">
+      <c r="I9" s="240"/>
+      <c r="J9" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K9" s="303" t="s">
-        <v>210</v>
-      </c>
-      <c r="L9" s="304"/>
-      <c r="N9" s="273"/>
+      <c r="K9" s="259" t="s">
+        <v>209</v>
+      </c>
+      <c r="L9" s="260"/>
+      <c r="N9" s="229"/>
       <c r="O9" s="8"/>
       <c r="P9" s="49">
         <f t="shared" si="1"/>
@@ -4716,15 +4718,17 @@
       <c r="H10" s="8">
         <v>14</v>
       </c>
-      <c r="I10" s="284"/>
-      <c r="J10" s="302" t="s">
+      <c r="I10" s="240"/>
+      <c r="J10" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K10" s="303" t="s">
+      <c r="K10" s="259" t="s">
         <v>204</v>
       </c>
-      <c r="L10" s="304"/>
-      <c r="N10" s="273"/>
+      <c r="L10" s="260" t="s">
+        <v>200</v>
+      </c>
+      <c r="N10" s="229"/>
       <c r="O10" s="8"/>
       <c r="P10" s="49">
         <f t="shared" si="1"/>
@@ -4952,15 +4956,15 @@
       <c r="H11" s="8">
         <v>27</v>
       </c>
-      <c r="I11" s="284"/>
-      <c r="J11" s="302" t="s">
+      <c r="I11" s="240"/>
+      <c r="J11" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K11" s="350" t="s">
-        <v>272</v>
-      </c>
-      <c r="L11" s="308"/>
-      <c r="N11" s="274"/>
+      <c r="K11" s="297" t="s">
+        <v>271</v>
+      </c>
+      <c r="L11" s="264"/>
+      <c r="N11" s="230"/>
       <c r="O11" s="8"/>
       <c r="P11" s="49">
         <f t="shared" si="1"/>
@@ -5188,11 +5192,11 @@
       <c r="H12" s="8">
         <v>1059</v>
       </c>
-      <c r="I12" s="284"/>
-      <c r="J12" s="302"/>
-      <c r="K12" s="277"/>
-      <c r="L12" s="306"/>
-      <c r="N12" s="292"/>
+      <c r="I12" s="240"/>
+      <c r="J12" s="258"/>
+      <c r="K12" s="233"/>
+      <c r="L12" s="262"/>
+      <c r="N12" s="248"/>
       <c r="O12" s="8"/>
       <c r="P12" s="49">
         <f t="shared" si="1"/>
@@ -5410,15 +5414,15 @@
       <c r="H13" s="8">
         <v>15</v>
       </c>
-      <c r="I13" s="284"/>
-      <c r="J13" s="302" t="s">
+      <c r="I13" s="240"/>
+      <c r="J13" s="258" t="s">
         <v>199</v>
       </c>
-      <c r="K13" s="303" t="s">
+      <c r="K13" s="259" t="s">
         <v>201</v>
       </c>
-      <c r="L13" s="304"/>
-      <c r="N13" s="273"/>
+      <c r="L13" s="260"/>
+      <c r="N13" s="229"/>
       <c r="O13" s="8"/>
       <c r="P13" s="49">
         <f t="shared" si="1"/>
@@ -5646,15 +5650,17 @@
       <c r="H14" s="8">
         <v>24</v>
       </c>
-      <c r="I14" s="284"/>
-      <c r="J14" s="302" t="s">
+      <c r="I14" s="240"/>
+      <c r="J14" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K14" s="303" t="s">
+      <c r="K14" s="259" t="s">
         <v>205</v>
       </c>
-      <c r="L14" s="304"/>
-      <c r="N14" s="273"/>
+      <c r="L14" s="260" t="s">
+        <v>200</v>
+      </c>
+      <c r="N14" s="229"/>
       <c r="O14" s="8"/>
       <c r="P14" s="49">
         <f t="shared" si="1"/>
@@ -5882,15 +5888,15 @@
       <c r="H15" s="8">
         <v>7</v>
       </c>
-      <c r="I15" s="284"/>
-      <c r="J15" s="302" t="s">
+      <c r="I15" s="240"/>
+      <c r="J15" s="258" t="s">
         <v>199</v>
       </c>
-      <c r="K15" s="303" t="s">
+      <c r="K15" s="259" t="s">
         <v>206</v>
       </c>
-      <c r="L15" s="304"/>
-      <c r="N15" s="273"/>
+      <c r="L15" s="260"/>
+      <c r="N15" s="229"/>
       <c r="O15" s="8"/>
       <c r="P15" s="49">
         <f t="shared" si="1"/>
@@ -6118,16 +6124,16 @@
       <c r="H16" s="8">
         <v>131</v>
       </c>
-      <c r="I16" s="284"/>
-      <c r="J16" s="302" t="s">
+      <c r="I16" s="240"/>
+      <c r="J16" s="258" t="s">
         <v>199</v>
       </c>
-      <c r="K16" s="303" t="s">
-        <v>212</v>
-      </c>
-      <c r="L16" s="304"/>
-      <c r="N16" s="273"/>
-      <c r="O16" s="273"/>
+      <c r="K16" s="259" t="s">
+        <v>211</v>
+      </c>
+      <c r="L16" s="260"/>
+      <c r="N16" s="229"/>
+      <c r="O16" s="229"/>
       <c r="P16" s="49">
         <f t="shared" si="1"/>
         <v>17.03</v>
@@ -6354,15 +6360,15 @@
       <c r="H17" s="8">
         <v>34</v>
       </c>
-      <c r="I17" s="284"/>
-      <c r="J17" s="302" t="s">
+      <c r="I17" s="240"/>
+      <c r="J17" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K17" s="303" t="s">
-        <v>213</v>
-      </c>
-      <c r="L17" s="304"/>
-      <c r="N17" s="273"/>
+      <c r="K17" s="259" t="s">
+        <v>212</v>
+      </c>
+      <c r="L17" s="260"/>
+      <c r="N17" s="229"/>
       <c r="O17" s="8"/>
       <c r="P17" s="49">
         <f t="shared" si="1"/>
@@ -6590,15 +6596,15 @@
       <c r="H18" s="11">
         <v>24</v>
       </c>
-      <c r="I18" s="286"/>
-      <c r="J18" s="309" t="s">
+      <c r="I18" s="242"/>
+      <c r="J18" s="265" t="s">
         <v>200</v>
       </c>
-      <c r="K18" s="303" t="s">
-        <v>214</v>
-      </c>
-      <c r="L18" s="304"/>
-      <c r="N18" s="273"/>
+      <c r="K18" s="259" t="s">
+        <v>213</v>
+      </c>
+      <c r="L18" s="260"/>
+      <c r="N18" s="229"/>
       <c r="O18" s="11"/>
       <c r="P18" s="49">
         <f t="shared" si="1"/>
@@ -6826,15 +6832,15 @@
       <c r="H19" s="8">
         <v>53</v>
       </c>
-      <c r="I19" s="284"/>
-      <c r="J19" s="302" t="s">
+      <c r="I19" s="240"/>
+      <c r="J19" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K19" s="303" t="s">
-        <v>215</v>
-      </c>
-      <c r="L19" s="304"/>
-      <c r="N19" s="273"/>
+      <c r="K19" s="259" t="s">
+        <v>214</v>
+      </c>
+      <c r="L19" s="260"/>
+      <c r="N19" s="229"/>
       <c r="O19" s="8"/>
       <c r="P19" s="49">
         <f t="shared" si="1"/>
@@ -7062,14 +7068,14 @@
       <c r="H20" s="8">
         <v>10</v>
       </c>
-      <c r="I20" s="284"/>
-      <c r="J20" s="302" t="s">
+      <c r="I20" s="240"/>
+      <c r="J20" s="258" t="s">
         <v>199</v>
       </c>
-      <c r="K20" s="310" t="s">
-        <v>217</v>
-      </c>
-      <c r="L20" s="311"/>
+      <c r="K20" s="266" t="s">
+        <v>216</v>
+      </c>
+      <c r="L20" s="267"/>
       <c r="N20"/>
       <c r="O20" s="8"/>
       <c r="P20" s="49">
@@ -7298,14 +7304,14 @@
       <c r="H21" s="8">
         <v>60</v>
       </c>
-      <c r="I21" s="284"/>
-      <c r="J21" s="302" t="s">
+      <c r="I21" s="240"/>
+      <c r="J21" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K21" s="310" t="s">
-        <v>218</v>
-      </c>
-      <c r="L21" s="311"/>
+      <c r="K21" s="266" t="s">
+        <v>217</v>
+      </c>
+      <c r="L21" s="267"/>
       <c r="N21"/>
       <c r="O21" s="8"/>
       <c r="P21" s="49">
@@ -7534,15 +7540,15 @@
       <c r="H22" s="18">
         <v>44</v>
       </c>
-      <c r="I22" s="285"/>
-      <c r="J22" s="305" t="s">
+      <c r="I22" s="241"/>
+      <c r="J22" s="261" t="s">
         <v>200</v>
       </c>
-      <c r="K22" s="303" t="s">
-        <v>242</v>
-      </c>
-      <c r="L22" s="304"/>
-      <c r="N22" s="273"/>
+      <c r="K22" s="259" t="s">
+        <v>241</v>
+      </c>
+      <c r="L22" s="260"/>
+      <c r="N22" s="229"/>
       <c r="O22" s="18"/>
       <c r="P22" s="49">
         <f t="shared" si="1"/>
@@ -7770,15 +7776,15 @@
       <c r="H23" s="8">
         <v>125</v>
       </c>
-      <c r="I23" s="284"/>
-      <c r="J23" s="302" t="s">
+      <c r="I23" s="240"/>
+      <c r="J23" s="258" t="s">
         <v>203</v>
       </c>
       <c r="K23" s="161" t="s">
         <v>203</v>
       </c>
-      <c r="L23" s="306"/>
-      <c r="N23" s="292"/>
+      <c r="L23" s="262"/>
+      <c r="N23" s="248"/>
       <c r="O23" s="8"/>
       <c r="P23" s="49">
         <f t="shared" si="1"/>
@@ -8006,15 +8012,15 @@
       <c r="H24" s="11">
         <v>54</v>
       </c>
-      <c r="I24" s="286"/>
-      <c r="J24" s="309" t="s">
+      <c r="I24" s="242"/>
+      <c r="J24" s="265" t="s">
         <v>203</v>
       </c>
       <c r="K24" s="183" t="s">
         <v>203</v>
       </c>
-      <c r="L24" s="312"/>
-      <c r="N24" s="293"/>
+      <c r="L24" s="268"/>
+      <c r="N24" s="249"/>
       <c r="O24" s="11"/>
       <c r="P24" s="49">
         <f t="shared" si="1"/>
@@ -8242,14 +8248,16 @@
       <c r="H25" s="8">
         <v>98</v>
       </c>
-      <c r="I25" s="284"/>
-      <c r="J25" s="302" t="s">
+      <c r="I25" s="240"/>
+      <c r="J25" s="258" t="s">
         <v>199</v>
       </c>
-      <c r="K25" s="310" t="s">
-        <v>219</v>
-      </c>
-      <c r="L25" s="311"/>
+      <c r="K25" s="266" t="s">
+        <v>218</v>
+      </c>
+      <c r="L25" s="267" t="s">
+        <v>200</v>
+      </c>
       <c r="N25"/>
       <c r="O25" s="8"/>
       <c r="P25" s="49">
@@ -8478,15 +8486,15 @@
       <c r="H26" s="8">
         <v>2377</v>
       </c>
-      <c r="I26" s="284"/>
-      <c r="J26" s="313" t="s">
+      <c r="I26" s="240"/>
+      <c r="J26" s="269" t="s">
         <v>199</v>
       </c>
-      <c r="K26" s="303" t="s">
-        <v>243</v>
-      </c>
-      <c r="L26" s="304"/>
-      <c r="N26" s="273"/>
+      <c r="K26" s="259" t="s">
+        <v>242</v>
+      </c>
+      <c r="L26" s="260"/>
+      <c r="N26" s="229"/>
       <c r="O26" s="8"/>
       <c r="P26" s="49">
         <f t="shared" si="1"/>
@@ -8714,15 +8722,15 @@
       <c r="H27" s="8">
         <v>834</v>
       </c>
-      <c r="I27" s="284"/>
-      <c r="J27" s="302" t="s">
+      <c r="I27" s="240"/>
+      <c r="J27" s="258" t="s">
         <v>199</v>
       </c>
-      <c r="K27" s="303" t="s">
-        <v>244</v>
-      </c>
-      <c r="L27" s="304"/>
-      <c r="N27" s="273"/>
+      <c r="K27" s="259" t="s">
+        <v>243</v>
+      </c>
+      <c r="L27" s="260"/>
+      <c r="N27" s="229"/>
       <c r="O27" s="8"/>
       <c r="P27" s="49">
         <f t="shared" si="1"/>
@@ -8950,15 +8958,15 @@
       <c r="H28" s="8">
         <v>208</v>
       </c>
-      <c r="I28" s="284"/>
-      <c r="J28" s="313" t="s">
+      <c r="I28" s="240"/>
+      <c r="J28" s="269" t="s">
         <v>203</v>
       </c>
-      <c r="K28" s="348" t="s">
+      <c r="K28" s="295" t="s">
         <v>203</v>
       </c>
-      <c r="L28" s="314"/>
-      <c r="N28" s="275"/>
+      <c r="L28" s="270"/>
+      <c r="N28" s="231"/>
       <c r="O28" s="8"/>
       <c r="P28" s="49">
         <f t="shared" si="1"/>
@@ -9177,14 +9185,16 @@
       <c r="H29" s="8">
         <v>31</v>
       </c>
-      <c r="I29" s="284"/>
-      <c r="J29" s="302" t="s">
+      <c r="I29" s="240"/>
+      <c r="J29" s="258" t="s">
         <v>199</v>
       </c>
-      <c r="K29" s="310" t="s">
-        <v>221</v>
-      </c>
-      <c r="L29" s="311"/>
+      <c r="K29" s="266" t="s">
+        <v>220</v>
+      </c>
+      <c r="L29" s="267" t="s">
+        <v>200</v>
+      </c>
       <c r="N29"/>
       <c r="O29" s="8"/>
       <c r="P29" s="49">
@@ -9413,15 +9423,15 @@
       <c r="H30" s="8">
         <v>288</v>
       </c>
-      <c r="I30" s="284"/>
-      <c r="J30" s="302" t="s">
+      <c r="I30" s="240"/>
+      <c r="J30" s="258" t="s">
         <v>199</v>
       </c>
-      <c r="K30" s="277" t="s">
-        <v>245</v>
-      </c>
-      <c r="L30" s="306"/>
-      <c r="N30" s="292"/>
+      <c r="K30" s="233" t="s">
+        <v>244</v>
+      </c>
+      <c r="L30" s="262"/>
+      <c r="N30" s="248"/>
       <c r="O30" s="8"/>
       <c r="P30" s="49">
         <f t="shared" si="1"/>
@@ -9649,15 +9659,15 @@
       <c r="H31" s="8">
         <v>292</v>
       </c>
-      <c r="I31" s="284"/>
-      <c r="J31" s="302" t="s">
+      <c r="I31" s="240"/>
+      <c r="J31" s="258" t="s">
         <v>199</v>
       </c>
-      <c r="K31" s="277" t="s">
-        <v>220</v>
-      </c>
-      <c r="L31" s="306"/>
-      <c r="N31" s="292"/>
+      <c r="K31" s="233" t="s">
+        <v>219</v>
+      </c>
+      <c r="L31" s="262"/>
+      <c r="N31" s="248"/>
       <c r="O31" s="8"/>
       <c r="P31" s="49">
         <f t="shared" si="1"/>
@@ -9885,15 +9895,15 @@
       <c r="H32" s="8">
         <v>59</v>
       </c>
-      <c r="I32" s="284"/>
-      <c r="J32" s="302" t="s">
+      <c r="I32" s="240"/>
+      <c r="J32" s="258" t="s">
         <v>199</v>
       </c>
-      <c r="K32" s="277" t="s">
-        <v>247</v>
-      </c>
-      <c r="L32" s="306"/>
-      <c r="N32" s="292"/>
+      <c r="K32" s="233" t="s">
+        <v>246</v>
+      </c>
+      <c r="L32" s="262"/>
+      <c r="N32" s="248"/>
       <c r="O32" s="8"/>
       <c r="P32" s="49">
         <f t="shared" si="1"/>
@@ -10121,15 +10131,15 @@
       <c r="H33" s="8">
         <v>278</v>
       </c>
-      <c r="I33" s="284"/>
-      <c r="J33" s="302" t="s">
+      <c r="I33" s="240"/>
+      <c r="J33" s="258" t="s">
         <v>199</v>
       </c>
-      <c r="K33" s="277" t="s">
-        <v>246</v>
-      </c>
-      <c r="L33" s="306"/>
-      <c r="N33" s="292"/>
+      <c r="K33" s="233" t="s">
+        <v>245</v>
+      </c>
+      <c r="L33" s="262"/>
+      <c r="N33" s="248"/>
       <c r="O33" s="8"/>
       <c r="P33" s="49">
         <f t="shared" si="1"/>
@@ -10357,15 +10367,15 @@
       <c r="H34" s="8">
         <v>312</v>
       </c>
-      <c r="I34" s="284"/>
-      <c r="J34" s="302" t="s">
+      <c r="I34" s="240"/>
+      <c r="J34" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K34" s="307" t="s">
-        <v>248</v>
-      </c>
-      <c r="L34" s="308"/>
-      <c r="N34" s="274"/>
+      <c r="K34" s="263" t="s">
+        <v>247</v>
+      </c>
+      <c r="L34" s="264"/>
+      <c r="N34" s="230"/>
       <c r="O34" s="8"/>
       <c r="P34" s="49">
         <f t="shared" si="1"/>
@@ -10593,14 +10603,14 @@
       <c r="H35" s="8">
         <v>98</v>
       </c>
-      <c r="I35" s="284"/>
-      <c r="J35" s="302" t="s">
+      <c r="I35" s="240"/>
+      <c r="J35" s="258" t="s">
         <v>199</v>
       </c>
-      <c r="K35" s="310" t="s">
-        <v>249</v>
-      </c>
-      <c r="L35" s="311"/>
+      <c r="K35" s="266" t="s">
+        <v>248</v>
+      </c>
+      <c r="L35" s="267"/>
       <c r="N35"/>
       <c r="O35" s="8"/>
       <c r="P35" s="49">
@@ -10829,14 +10839,14 @@
       <c r="H36" s="8">
         <v>106</v>
       </c>
-      <c r="I36" s="284"/>
-      <c r="J36" s="302" t="s">
+      <c r="I36" s="240"/>
+      <c r="J36" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K36" s="310" t="s">
-        <v>250</v>
-      </c>
-      <c r="L36" s="311"/>
+      <c r="K36" s="266" t="s">
+        <v>249</v>
+      </c>
+      <c r="L36" s="267"/>
       <c r="N36"/>
       <c r="O36" s="8"/>
       <c r="P36" s="49">
@@ -11065,15 +11075,15 @@
       <c r="H37" s="8">
         <v>45</v>
       </c>
-      <c r="I37" s="284"/>
-      <c r="J37" s="302" t="s">
+      <c r="I37" s="240"/>
+      <c r="J37" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K37" s="277" t="s">
-        <v>251</v>
-      </c>
-      <c r="L37" s="306"/>
-      <c r="N37" s="292"/>
+      <c r="K37" s="233" t="s">
+        <v>250</v>
+      </c>
+      <c r="L37" s="262"/>
+      <c r="N37" s="248"/>
       <c r="O37" s="8"/>
       <c r="P37" s="49">
         <f t="shared" si="32"/>
@@ -11301,14 +11311,14 @@
       <c r="H38" s="8">
         <v>184</v>
       </c>
-      <c r="I38" s="284"/>
-      <c r="J38" s="302" t="s">
+      <c r="I38" s="240"/>
+      <c r="J38" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K38" s="310" t="s">
-        <v>222</v>
-      </c>
-      <c r="L38" s="311"/>
+      <c r="K38" s="266" t="s">
+        <v>221</v>
+      </c>
+      <c r="L38" s="267"/>
       <c r="N38"/>
       <c r="O38" s="8"/>
       <c r="P38" s="49">
@@ -11537,14 +11547,14 @@
       <c r="H39" s="8">
         <v>66</v>
       </c>
-      <c r="I39" s="284"/>
-      <c r="J39" s="302" t="s">
+      <c r="I39" s="240"/>
+      <c r="J39" s="258" t="s">
         <v>199</v>
       </c>
-      <c r="K39" s="310" t="s">
-        <v>223</v>
-      </c>
-      <c r="L39" s="311"/>
+      <c r="K39" s="266" t="s">
+        <v>222</v>
+      </c>
+      <c r="L39" s="267"/>
       <c r="N39"/>
       <c r="O39" s="8"/>
       <c r="P39" s="49">
@@ -11773,15 +11783,15 @@
       <c r="H40" s="8">
         <v>398</v>
       </c>
-      <c r="I40" s="284"/>
-      <c r="J40" s="302" t="s">
+      <c r="I40" s="240"/>
+      <c r="J40" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K40" s="277" t="s">
-        <v>252</v>
-      </c>
-      <c r="L40" s="306"/>
-      <c r="N40" s="292"/>
+      <c r="K40" s="233" t="s">
+        <v>251</v>
+      </c>
+      <c r="L40" s="262"/>
+      <c r="N40" s="248"/>
       <c r="O40" s="8"/>
       <c r="P40" s="49">
         <f t="shared" si="32"/>
@@ -12009,15 +12019,15 @@
       <c r="H41" s="11">
         <v>24</v>
       </c>
-      <c r="I41" s="286"/>
-      <c r="J41" s="309" t="s">
+      <c r="I41" s="242"/>
+      <c r="J41" s="265" t="s">
         <v>199</v>
       </c>
-      <c r="K41" s="303" t="s">
-        <v>216</v>
-      </c>
-      <c r="L41" s="304"/>
-      <c r="N41" s="273"/>
+      <c r="K41" s="259" t="s">
+        <v>215</v>
+      </c>
+      <c r="L41" s="260"/>
+      <c r="N41" s="229"/>
       <c r="O41" s="11"/>
       <c r="P41" s="49">
         <f t="shared" si="32"/>
@@ -12245,15 +12255,15 @@
       <c r="H42" s="11">
         <v>178</v>
       </c>
-      <c r="I42" s="286"/>
-      <c r="J42" s="309" t="s">
+      <c r="I42" s="242"/>
+      <c r="J42" s="265" t="s">
         <v>200</v>
       </c>
-      <c r="K42" s="279" t="s">
-        <v>224</v>
-      </c>
-      <c r="L42" s="312"/>
-      <c r="N42" s="293"/>
+      <c r="K42" s="235" t="s">
+        <v>223</v>
+      </c>
+      <c r="L42" s="268"/>
+      <c r="N42" s="249"/>
       <c r="O42" s="11"/>
       <c r="P42" s="49">
         <f t="shared" si="32"/>
@@ -12481,15 +12491,15 @@
       <c r="H43" s="142">
         <v>3</v>
       </c>
-      <c r="I43" s="287"/>
-      <c r="J43" s="315" t="s">
+      <c r="I43" s="243"/>
+      <c r="J43" s="271" t="s">
         <v>200</v>
       </c>
-      <c r="K43" s="280" t="s">
-        <v>225</v>
-      </c>
-      <c r="L43" s="316"/>
-      <c r="N43" s="294"/>
+      <c r="K43" s="236" t="s">
+        <v>224</v>
+      </c>
+      <c r="L43" s="272"/>
+      <c r="N43" s="250"/>
       <c r="O43" s="142"/>
       <c r="P43" s="141">
         <f t="shared" si="32"/>
@@ -12638,15 +12648,15 @@
       <c r="H44" s="11">
         <v>101</v>
       </c>
-      <c r="I44" s="286"/>
-      <c r="J44" s="309" t="s">
+      <c r="I44" s="242"/>
+      <c r="J44" s="265" t="s">
         <v>200</v>
       </c>
-      <c r="K44" s="303" t="s">
-        <v>226</v>
-      </c>
-      <c r="L44" s="304"/>
-      <c r="N44" s="273"/>
+      <c r="K44" s="259" t="s">
+        <v>225</v>
+      </c>
+      <c r="L44" s="260"/>
+      <c r="N44" s="229"/>
       <c r="O44" s="11"/>
       <c r="P44" s="49">
         <f t="shared" si="32"/>
@@ -12874,15 +12884,15 @@
       <c r="H45" s="11">
         <v>42</v>
       </c>
-      <c r="I45" s="286"/>
-      <c r="J45" s="309" t="s">
+      <c r="I45" s="242"/>
+      <c r="J45" s="265" t="s">
         <v>200</v>
       </c>
-      <c r="K45" s="303" t="s">
-        <v>227</v>
-      </c>
-      <c r="L45" s="304"/>
-      <c r="N45" s="273"/>
+      <c r="K45" s="259" t="s">
+        <v>226</v>
+      </c>
+      <c r="L45" s="260"/>
+      <c r="N45" s="229"/>
       <c r="O45" s="11"/>
       <c r="P45" s="49">
         <f t="shared" si="32"/>
@@ -13110,14 +13120,14 @@
       <c r="H46" s="11">
         <v>107</v>
       </c>
-      <c r="I46" s="286"/>
-      <c r="J46" s="309" t="s">
+      <c r="I46" s="242"/>
+      <c r="J46" s="265" t="s">
         <v>199</v>
       </c>
-      <c r="K46" s="310" t="s">
-        <v>253</v>
-      </c>
-      <c r="L46" s="311"/>
+      <c r="K46" s="266" t="s">
+        <v>252</v>
+      </c>
+      <c r="L46" s="267"/>
       <c r="N46"/>
       <c r="O46" s="11"/>
       <c r="P46" s="49">
@@ -13346,14 +13356,14 @@
       <c r="H47" s="8">
         <v>64</v>
       </c>
-      <c r="I47" s="284"/>
-      <c r="J47" s="302" t="s">
+      <c r="I47" s="240"/>
+      <c r="J47" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K47" s="310" t="s">
-        <v>228</v>
-      </c>
-      <c r="L47" s="311"/>
+      <c r="K47" s="266" t="s">
+        <v>227</v>
+      </c>
+      <c r="L47" s="267"/>
       <c r="N47"/>
       <c r="O47" s="8"/>
       <c r="P47" s="49">
@@ -13582,14 +13592,16 @@
       <c r="H48" s="11">
         <v>192</v>
       </c>
-      <c r="I48" s="286"/>
-      <c r="J48" s="309" t="s">
+      <c r="I48" s="242"/>
+      <c r="J48" s="265" t="s">
         <v>199</v>
       </c>
-      <c r="K48" s="310" t="s">
-        <v>254</v>
-      </c>
-      <c r="L48" s="311"/>
+      <c r="K48" s="266" t="s">
+        <v>253</v>
+      </c>
+      <c r="L48" s="267" t="s">
+        <v>200</v>
+      </c>
       <c r="N48"/>
       <c r="O48" s="11"/>
       <c r="P48" s="49">
@@ -13818,14 +13830,14 @@
       <c r="H49" s="17">
         <v>928</v>
       </c>
-      <c r="I49" s="288"/>
-      <c r="J49" s="317" t="s">
+      <c r="I49" s="244"/>
+      <c r="J49" s="273" t="s">
         <v>200</v>
       </c>
-      <c r="K49" s="310" t="s">
-        <v>255</v>
-      </c>
-      <c r="L49" s="311"/>
+      <c r="K49" s="266" t="s">
+        <v>254</v>
+      </c>
+      <c r="L49" s="267"/>
       <c r="N49"/>
       <c r="O49" s="17"/>
       <c r="P49" s="49">
@@ -14054,15 +14066,15 @@
       <c r="H50" s="8">
         <v>158</v>
       </c>
-      <c r="I50" s="284"/>
-      <c r="J50" s="302" t="s">
+      <c r="I50" s="240"/>
+      <c r="J50" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K50" s="277" t="s">
-        <v>256</v>
-      </c>
-      <c r="L50" s="306"/>
-      <c r="N50" s="292"/>
+      <c r="K50" s="233" t="s">
+        <v>255</v>
+      </c>
+      <c r="L50" s="262"/>
+      <c r="N50" s="248"/>
       <c r="O50" s="8"/>
       <c r="P50" s="49">
         <f t="shared" si="32"/>
@@ -14290,11 +14302,11 @@
       <c r="H51" s="8">
         <v>113</v>
       </c>
-      <c r="I51" s="284"/>
-      <c r="J51" s="302"/>
-      <c r="K51" s="277"/>
-      <c r="L51" s="306"/>
-      <c r="N51" s="292"/>
+      <c r="I51" s="240"/>
+      <c r="J51" s="258"/>
+      <c r="K51" s="233"/>
+      <c r="L51" s="262"/>
+      <c r="N51" s="248"/>
       <c r="O51" s="8"/>
       <c r="P51" s="49">
         <f t="shared" si="32"/>
@@ -14505,15 +14517,17 @@
       <c r="H52" s="22">
         <v>1568</v>
       </c>
-      <c r="I52" s="289"/>
-      <c r="J52" s="302" t="s">
+      <c r="I52" s="245"/>
+      <c r="J52" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K52" s="277" t="s">
-        <v>257</v>
-      </c>
-      <c r="L52" s="306"/>
-      <c r="N52" s="295"/>
+      <c r="K52" s="233" t="s">
+        <v>256</v>
+      </c>
+      <c r="L52" s="262" t="s">
+        <v>200</v>
+      </c>
+      <c r="N52" s="251"/>
       <c r="O52" s="22"/>
       <c r="P52" s="49">
         <f t="shared" si="32"/>
@@ -14740,15 +14754,15 @@
       <c r="H53" s="11">
         <v>269</v>
       </c>
-      <c r="I53" s="286"/>
-      <c r="J53" s="309" t="s">
+      <c r="I53" s="242"/>
+      <c r="J53" s="265" t="s">
         <v>200</v>
       </c>
-      <c r="K53" s="279" t="s">
-        <v>258</v>
-      </c>
-      <c r="L53" s="312"/>
-      <c r="N53" s="293"/>
+      <c r="K53" s="235" t="s">
+        <v>257</v>
+      </c>
+      <c r="L53" s="268"/>
+      <c r="N53" s="249"/>
       <c r="O53" s="11"/>
       <c r="P53" s="49">
         <f t="shared" si="32"/>
@@ -14976,15 +14990,17 @@
       <c r="H54" s="8">
         <v>353</v>
       </c>
-      <c r="I54" s="284"/>
-      <c r="J54" s="302" t="s">
+      <c r="I54" s="240"/>
+      <c r="J54" s="258" t="s">
         <v>199</v>
       </c>
-      <c r="K54" s="277" t="s">
-        <v>259</v>
-      </c>
-      <c r="L54" s="306"/>
-      <c r="N54" s="292"/>
+      <c r="K54" s="233" t="s">
+        <v>258</v>
+      </c>
+      <c r="L54" s="262" t="s">
+        <v>200</v>
+      </c>
+      <c r="N54" s="248"/>
       <c r="O54" s="8"/>
       <c r="P54" s="49">
         <f t="shared" si="32"/>
@@ -15212,15 +15228,15 @@
       <c r="H55" s="8">
         <v>103</v>
       </c>
-      <c r="I55" s="284"/>
-      <c r="J55" s="302" t="s">
+      <c r="I55" s="240"/>
+      <c r="J55" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K55" s="277" t="s">
-        <v>260</v>
-      </c>
-      <c r="L55" s="306"/>
-      <c r="N55" s="292"/>
+      <c r="K55" s="233" t="s">
+        <v>259</v>
+      </c>
+      <c r="L55" s="262"/>
+      <c r="N55" s="248"/>
       <c r="O55" s="8"/>
       <c r="P55" s="49">
         <f t="shared" si="32"/>
@@ -15448,14 +15464,14 @@
       <c r="H56" s="8">
         <v>449</v>
       </c>
-      <c r="I56" s="284"/>
-      <c r="J56" s="302" t="s">
+      <c r="I56" s="240"/>
+      <c r="J56" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K56" s="310" t="s">
-        <v>261</v>
-      </c>
-      <c r="L56" s="311"/>
+      <c r="K56" s="266" t="s">
+        <v>260</v>
+      </c>
+      <c r="L56" s="267"/>
       <c r="N56"/>
       <c r="O56" s="8"/>
       <c r="P56" s="49">
@@ -15684,14 +15700,14 @@
       <c r="H57" s="8">
         <v>204</v>
       </c>
-      <c r="I57" s="284"/>
-      <c r="J57" s="302" t="s">
+      <c r="I57" s="240"/>
+      <c r="J57" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K57" s="310" t="s">
-        <v>229</v>
-      </c>
-      <c r="L57" s="311"/>
+      <c r="K57" s="266" t="s">
+        <v>228</v>
+      </c>
+      <c r="L57" s="267"/>
       <c r="N57"/>
       <c r="O57" s="8"/>
       <c r="P57" s="49">
@@ -15920,15 +15936,15 @@
       <c r="H58" s="11">
         <v>115</v>
       </c>
-      <c r="I58" s="286"/>
-      <c r="J58" s="309" t="s">
+      <c r="I58" s="242"/>
+      <c r="J58" s="265" t="s">
         <v>199</v>
       </c>
-      <c r="K58" s="279" t="s">
-        <v>262</v>
-      </c>
-      <c r="L58" s="312"/>
-      <c r="N58" s="293"/>
+      <c r="K58" s="235" t="s">
+        <v>261</v>
+      </c>
+      <c r="L58" s="268"/>
+      <c r="N58" s="249"/>
       <c r="O58" s="11"/>
       <c r="P58" s="49">
         <f t="shared" si="32"/>
@@ -16156,14 +16172,14 @@
       <c r="H59" s="18">
         <v>12</v>
       </c>
-      <c r="I59" s="285"/>
-      <c r="J59" s="305" t="s">
+      <c r="I59" s="241"/>
+      <c r="J59" s="261" t="s">
         <v>199</v>
       </c>
-      <c r="K59" s="310" t="s">
-        <v>263</v>
-      </c>
-      <c r="L59" s="311"/>
+      <c r="K59" s="266" t="s">
+        <v>262</v>
+      </c>
+      <c r="L59" s="267"/>
       <c r="N59"/>
       <c r="O59" s="18"/>
       <c r="P59" s="49">
@@ -16392,14 +16408,16 @@
       <c r="H60" s="8">
         <v>71</v>
       </c>
-      <c r="I60" s="284"/>
-      <c r="J60" s="302" t="s">
+      <c r="I60" s="240"/>
+      <c r="J60" s="258" t="s">
         <v>199</v>
       </c>
-      <c r="K60" s="310" t="s">
-        <v>230</v>
-      </c>
-      <c r="L60" s="311"/>
+      <c r="K60" s="266" t="s">
+        <v>229</v>
+      </c>
+      <c r="L60" s="267" t="s">
+        <v>200</v>
+      </c>
       <c r="N60"/>
       <c r="O60" s="8"/>
       <c r="P60" s="49">
@@ -16628,15 +16646,15 @@
       <c r="H61" s="8">
         <v>20</v>
       </c>
-      <c r="I61" s="284"/>
-      <c r="J61" s="302" t="s">
+      <c r="I61" s="240"/>
+      <c r="J61" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K61" s="277" t="s">
-        <v>264</v>
-      </c>
-      <c r="L61" s="306"/>
-      <c r="N61" s="292"/>
+      <c r="K61" s="233" t="s">
+        <v>263</v>
+      </c>
+      <c r="L61" s="262"/>
+      <c r="N61" s="248"/>
       <c r="O61" s="8"/>
       <c r="P61" s="49">
         <f t="shared" si="32"/>
@@ -16852,15 +16870,17 @@
       <c r="H62" s="22">
         <v>94</v>
       </c>
-      <c r="I62" s="289"/>
-      <c r="J62" s="302" t="s">
+      <c r="I62" s="245"/>
+      <c r="J62" s="258" t="s">
         <v>199</v>
       </c>
-      <c r="K62" s="277" t="s">
-        <v>231</v>
-      </c>
-      <c r="L62" s="306"/>
-      <c r="N62" s="295"/>
+      <c r="K62" s="233" t="s">
+        <v>230</v>
+      </c>
+      <c r="L62" s="262" t="s">
+        <v>200</v>
+      </c>
+      <c r="N62" s="251"/>
       <c r="O62" s="22"/>
       <c r="P62" s="49">
         <f t="shared" si="32"/>
@@ -17086,15 +17106,15 @@
       <c r="H63" s="17">
         <v>307</v>
       </c>
-      <c r="I63" s="288"/>
-      <c r="J63" s="317" t="s">
+      <c r="I63" s="244"/>
+      <c r="J63" s="273" t="s">
         <v>199</v>
       </c>
-      <c r="K63" s="281" t="s">
-        <v>232</v>
-      </c>
-      <c r="L63" s="318"/>
-      <c r="N63" s="296"/>
+      <c r="K63" s="237" t="s">
+        <v>231</v>
+      </c>
+      <c r="L63" s="274"/>
+      <c r="N63" s="252"/>
       <c r="O63" s="17"/>
       <c r="P63" s="49">
         <f t="shared" si="32"/>
@@ -17322,15 +17342,15 @@
       <c r="H64" s="8">
         <v>61</v>
       </c>
-      <c r="I64" s="284"/>
-      <c r="J64" s="302" t="s">
+      <c r="I64" s="240"/>
+      <c r="J64" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K64" s="277" t="s">
-        <v>233</v>
-      </c>
-      <c r="L64" s="306"/>
-      <c r="N64" s="292"/>
+      <c r="K64" s="233" t="s">
+        <v>232</v>
+      </c>
+      <c r="L64" s="262"/>
+      <c r="N64" s="248"/>
       <c r="O64" s="8"/>
       <c r="P64" s="49">
         <f t="shared" si="32"/>
@@ -17558,14 +17578,14 @@
       <c r="H65" s="8">
         <v>106</v>
       </c>
-      <c r="I65" s="284"/>
-      <c r="J65" s="302" t="s">
+      <c r="I65" s="240"/>
+      <c r="J65" s="258" t="s">
         <v>199</v>
       </c>
-      <c r="K65" s="310" t="s">
-        <v>265</v>
-      </c>
-      <c r="L65" s="311"/>
+      <c r="K65" s="266" t="s">
+        <v>264</v>
+      </c>
+      <c r="L65" s="267"/>
       <c r="N65"/>
       <c r="O65" s="8"/>
       <c r="P65" s="49">
@@ -17794,15 +17814,17 @@
       <c r="H66" s="8">
         <v>356</v>
       </c>
-      <c r="I66" s="284"/>
-      <c r="J66" s="302" t="s">
+      <c r="I66" s="240"/>
+      <c r="J66" s="258" t="s">
         <v>199</v>
       </c>
-      <c r="K66" s="277" t="s">
-        <v>234</v>
-      </c>
-      <c r="L66" s="306"/>
-      <c r="N66" s="292"/>
+      <c r="K66" s="233" t="s">
+        <v>233</v>
+      </c>
+      <c r="L66" s="262" t="s">
+        <v>200</v>
+      </c>
+      <c r="N66" s="248"/>
       <c r="O66" s="8"/>
       <c r="P66" s="49">
         <f t="shared" si="32"/>
@@ -18030,15 +18052,15 @@
       <c r="H67" s="8">
         <v>442</v>
       </c>
-      <c r="I67" s="284"/>
-      <c r="J67" s="302" t="s">
+      <c r="I67" s="240"/>
+      <c r="J67" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K67" s="277" t="s">
-        <v>266</v>
-      </c>
-      <c r="L67" s="306"/>
-      <c r="N67" s="292"/>
+      <c r="K67" s="233" t="s">
+        <v>265</v>
+      </c>
+      <c r="L67" s="262"/>
+      <c r="N67" s="248"/>
       <c r="O67" s="8"/>
       <c r="P67" s="49">
         <f t="shared" si="32"/>
@@ -18266,15 +18288,15 @@
       <c r="H68" s="8">
         <v>24</v>
       </c>
-      <c r="I68" s="284"/>
-      <c r="J68" s="302" t="s">
+      <c r="I68" s="240"/>
+      <c r="J68" s="258" t="s">
         <v>199</v>
       </c>
-      <c r="K68" s="277" t="s">
-        <v>267</v>
-      </c>
-      <c r="L68" s="306"/>
-      <c r="N68" s="292"/>
+      <c r="K68" s="233" t="s">
+        <v>266</v>
+      </c>
+      <c r="L68" s="262"/>
+      <c r="N68" s="248"/>
       <c r="O68" s="8"/>
       <c r="P68" s="49">
         <f t="shared" ref="P68:P89" si="62">PRODUCT(E68,H68)</f>
@@ -18502,15 +18524,15 @@
       <c r="H69" s="8">
         <v>42</v>
       </c>
-      <c r="I69" s="284"/>
-      <c r="J69" s="302" t="s">
+      <c r="I69" s="240"/>
+      <c r="J69" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K69" s="277" t="s">
-        <v>268</v>
-      </c>
-      <c r="L69" s="306"/>
-      <c r="N69" s="292"/>
+      <c r="K69" s="233" t="s">
+        <v>267</v>
+      </c>
+      <c r="L69" s="262"/>
+      <c r="N69" s="248"/>
       <c r="O69" s="8"/>
       <c r="P69" s="49">
         <f t="shared" si="62"/>
@@ -18738,15 +18760,15 @@
       <c r="H70" s="11">
         <v>15</v>
       </c>
-      <c r="I70" s="286"/>
-      <c r="J70" s="309" t="s">
+      <c r="I70" s="242"/>
+      <c r="J70" s="265" t="s">
         <v>203</v>
       </c>
       <c r="K70" s="183" t="s">
         <v>203</v>
       </c>
-      <c r="L70" s="312"/>
-      <c r="N70" s="293"/>
+      <c r="L70" s="268"/>
+      <c r="N70" s="249"/>
       <c r="O70" s="11"/>
       <c r="P70" s="49">
         <f t="shared" si="62"/>
@@ -18966,15 +18988,15 @@
       <c r="H71" s="8">
         <v>246</v>
       </c>
-      <c r="I71" s="284"/>
-      <c r="J71" s="302" t="s">
+      <c r="I71" s="240"/>
+      <c r="J71" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K71" s="277" t="s">
-        <v>269</v>
-      </c>
-      <c r="L71" s="306"/>
-      <c r="N71" s="292"/>
+      <c r="K71" s="233" t="s">
+        <v>268</v>
+      </c>
+      <c r="L71" s="262"/>
+      <c r="N71" s="248"/>
       <c r="O71" s="8"/>
       <c r="P71" s="49">
         <f t="shared" si="62"/>
@@ -19202,15 +19224,15 @@
       <c r="H72" s="8">
         <v>42</v>
       </c>
-      <c r="I72" s="284"/>
-      <c r="J72" s="302" t="s">
+      <c r="I72" s="240"/>
+      <c r="J72" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K72" s="277" t="s">
-        <v>235</v>
-      </c>
-      <c r="L72" s="306"/>
-      <c r="N72" s="292"/>
+      <c r="K72" s="233" t="s">
+        <v>234</v>
+      </c>
+      <c r="L72" s="262"/>
+      <c r="N72" s="248"/>
       <c r="O72" s="8"/>
       <c r="P72" s="49">
         <f t="shared" si="62"/>
@@ -19438,15 +19460,15 @@
       <c r="H73" s="8">
         <v>248</v>
       </c>
-      <c r="I73" s="284"/>
-      <c r="J73" s="302" t="s">
+      <c r="I73" s="240"/>
+      <c r="J73" s="258" t="s">
         <v>199</v>
       </c>
       <c r="K73" s="161" t="s">
-        <v>236</v>
-      </c>
-      <c r="L73" s="306"/>
-      <c r="N73" s="292"/>
+        <v>235</v>
+      </c>
+      <c r="L73" s="262"/>
+      <c r="N73" s="248"/>
       <c r="O73" s="8"/>
       <c r="P73" s="49">
         <f t="shared" si="62"/>
@@ -19674,10 +19696,10 @@
       <c r="H74" s="8">
         <v>420</v>
       </c>
-      <c r="I74" s="284"/>
-      <c r="J74" s="302"/>
-      <c r="K74" s="319"/>
-      <c r="L74" s="320"/>
+      <c r="I74" s="240"/>
+      <c r="J74" s="258"/>
+      <c r="K74" s="275"/>
+      <c r="L74" s="276"/>
       <c r="O74" s="8"/>
       <c r="P74" s="49">
         <f t="shared" si="62"/>
@@ -19899,15 +19921,17 @@
       <c r="H75" s="18">
         <v>1010</v>
       </c>
-      <c r="I75" s="285"/>
-      <c r="J75" s="305" t="s">
+      <c r="I75" s="241"/>
+      <c r="J75" s="261" t="s">
         <v>199</v>
       </c>
       <c r="K75" s="161" t="s">
-        <v>237</v>
-      </c>
-      <c r="L75" s="321"/>
-      <c r="N75" s="297"/>
+        <v>236</v>
+      </c>
+      <c r="L75" s="277" t="s">
+        <v>200</v>
+      </c>
+      <c r="N75" s="253"/>
       <c r="O75" s="18"/>
       <c r="P75" s="49">
         <f t="shared" si="62"/>
@@ -20135,11 +20159,11 @@
       <c r="H76" s="18">
         <v>39</v>
       </c>
-      <c r="I76" s="285"/>
-      <c r="J76" s="305"/>
-      <c r="K76" s="278"/>
-      <c r="L76" s="321"/>
-      <c r="N76" s="297"/>
+      <c r="I76" s="241"/>
+      <c r="J76" s="261"/>
+      <c r="K76" s="234"/>
+      <c r="L76" s="277"/>
+      <c r="N76" s="253"/>
       <c r="O76" s="18"/>
       <c r="P76" s="49">
         <f t="shared" si="62"/>
@@ -20350,14 +20374,14 @@
       <c r="H77" s="18">
         <v>24</v>
       </c>
-      <c r="I77" s="285"/>
-      <c r="J77" s="305" t="s">
+      <c r="I77" s="241"/>
+      <c r="J77" s="261" t="s">
         <v>200</v>
       </c>
-      <c r="K77" s="310" t="s">
-        <v>238</v>
-      </c>
-      <c r="L77" s="311"/>
+      <c r="K77" s="266" t="s">
+        <v>237</v>
+      </c>
+      <c r="L77" s="267"/>
       <c r="N77"/>
       <c r="O77" s="18"/>
       <c r="P77" s="49">
@@ -20586,14 +20610,14 @@
       <c r="H78" s="18">
         <v>11</v>
       </c>
-      <c r="I78" s="285"/>
-      <c r="J78" s="305" t="s">
+      <c r="I78" s="241"/>
+      <c r="J78" s="261" t="s">
         <v>200</v>
       </c>
-      <c r="K78" s="310" t="s">
-        <v>270</v>
-      </c>
-      <c r="L78" s="311"/>
+      <c r="K78" s="266" t="s">
+        <v>269</v>
+      </c>
+      <c r="L78" s="267"/>
       <c r="N78"/>
       <c r="O78" s="18"/>
       <c r="P78" s="49">
@@ -20822,15 +20846,15 @@
       <c r="H79" s="18">
         <v>13</v>
       </c>
-      <c r="I79" s="285"/>
-      <c r="J79" s="305" t="s">
+      <c r="I79" s="241"/>
+      <c r="J79" s="261" t="s">
         <v>203</v>
       </c>
-      <c r="K79" s="349" t="s">
+      <c r="K79" s="296" t="s">
         <v>203</v>
       </c>
-      <c r="L79" s="321"/>
-      <c r="N79" s="297"/>
+      <c r="L79" s="277"/>
+      <c r="N79" s="253"/>
       <c r="O79" s="18"/>
       <c r="P79" s="49">
         <f t="shared" si="62"/>
@@ -21058,15 +21082,15 @@
       <c r="H80" s="8">
         <v>21</v>
       </c>
-      <c r="I80" s="284"/>
-      <c r="J80" s="302" t="s">
+      <c r="I80" s="240"/>
+      <c r="J80" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K80" s="277" t="s">
-        <v>273</v>
-      </c>
-      <c r="L80" s="306"/>
-      <c r="N80" s="292"/>
+      <c r="K80" s="233" t="s">
+        <v>272</v>
+      </c>
+      <c r="L80" s="262"/>
+      <c r="N80" s="248"/>
       <c r="O80" s="8"/>
       <c r="P80" s="49">
         <f t="shared" si="62"/>
@@ -21294,15 +21318,15 @@
       <c r="H81" s="11">
         <v>362</v>
       </c>
-      <c r="I81" s="286"/>
-      <c r="J81" s="309" t="s">
+      <c r="I81" s="242"/>
+      <c r="J81" s="265" t="s">
         <v>203</v>
       </c>
       <c r="K81" s="183" t="s">
         <v>203</v>
       </c>
-      <c r="L81" s="312"/>
-      <c r="N81" s="293"/>
+      <c r="L81" s="268"/>
+      <c r="N81" s="249"/>
       <c r="O81" s="11"/>
       <c r="P81" s="49">
         <f t="shared" si="62"/>
@@ -21530,15 +21554,15 @@
       <c r="H82" s="8">
         <v>1041</v>
       </c>
-      <c r="I82" s="284"/>
-      <c r="J82" s="302" t="s">
+      <c r="I82" s="240"/>
+      <c r="J82" s="258" t="s">
         <v>203</v>
       </c>
       <c r="K82" s="161" t="s">
         <v>203</v>
       </c>
-      <c r="L82" s="306"/>
-      <c r="N82" s="292"/>
+      <c r="L82" s="262"/>
+      <c r="N82" s="248"/>
       <c r="O82" s="8"/>
       <c r="P82" s="49">
         <f t="shared" si="62"/>
@@ -21766,15 +21790,17 @@
       <c r="H83" s="8">
         <v>406</v>
       </c>
-      <c r="I83" s="284"/>
-      <c r="J83" s="302" t="s">
+      <c r="I83" s="240"/>
+      <c r="J83" s="258" t="s">
         <v>199</v>
       </c>
-      <c r="K83" s="277" t="s">
-        <v>274</v>
-      </c>
-      <c r="L83" s="306"/>
-      <c r="N83" s="292"/>
+      <c r="K83" s="233" t="s">
+        <v>273</v>
+      </c>
+      <c r="L83" s="262" t="s">
+        <v>200</v>
+      </c>
+      <c r="N83" s="248"/>
       <c r="O83" s="8"/>
       <c r="P83" s="49">
         <f t="shared" si="62"/>
@@ -22002,14 +22028,14 @@
       <c r="H84" s="8">
         <v>87</v>
       </c>
-      <c r="I84" s="284"/>
-      <c r="J84" s="302" t="s">
+      <c r="I84" s="240"/>
+      <c r="J84" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K84" s="310" t="s">
-        <v>239</v>
-      </c>
-      <c r="L84" s="311"/>
+      <c r="K84" s="266" t="s">
+        <v>238</v>
+      </c>
+      <c r="L84" s="267"/>
       <c r="N84"/>
       <c r="O84" s="8"/>
       <c r="P84" s="49">
@@ -22238,14 +22264,14 @@
       <c r="H85" s="11">
         <v>479</v>
       </c>
-      <c r="I85" s="286"/>
-      <c r="J85" s="309" t="s">
+      <c r="I85" s="242"/>
+      <c r="J85" s="265" t="s">
         <v>199</v>
       </c>
-      <c r="K85" s="310" t="s">
-        <v>240</v>
-      </c>
-      <c r="L85" s="311"/>
+      <c r="K85" s="266" t="s">
+        <v>239</v>
+      </c>
+      <c r="L85" s="267"/>
       <c r="N85"/>
       <c r="O85" s="11"/>
       <c r="P85" s="49">
@@ -22474,15 +22500,15 @@
       <c r="H86" s="8">
         <v>64</v>
       </c>
-      <c r="I86" s="284"/>
-      <c r="J86" s="302" t="s">
+      <c r="I86" s="240"/>
+      <c r="J86" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K86" s="277" t="s">
-        <v>271</v>
-      </c>
-      <c r="L86" s="306"/>
-      <c r="N86" s="292"/>
+      <c r="K86" s="233" t="s">
+        <v>270</v>
+      </c>
+      <c r="L86" s="262"/>
+      <c r="N86" s="248"/>
       <c r="O86" s="8"/>
       <c r="P86" s="49">
         <f t="shared" si="62"/>
@@ -22710,14 +22736,16 @@
       <c r="H87" s="8">
         <v>718</v>
       </c>
-      <c r="I87" s="284"/>
-      <c r="J87" s="302" t="s">
+      <c r="I87" s="240"/>
+      <c r="J87" s="258" t="s">
         <v>199</v>
       </c>
-      <c r="K87" s="310" t="s">
-        <v>241</v>
-      </c>
-      <c r="L87" s="311"/>
+      <c r="K87" s="266" t="s">
+        <v>240</v>
+      </c>
+      <c r="L87" s="267" t="s">
+        <v>200</v>
+      </c>
       <c r="N87"/>
       <c r="O87" s="8"/>
       <c r="P87" s="49">
@@ -22946,15 +22974,15 @@
       <c r="H88" s="8">
         <v>29</v>
       </c>
-      <c r="I88" s="284"/>
-      <c r="J88" s="302" t="s">
+      <c r="I88" s="240"/>
+      <c r="J88" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K88" s="277" t="s">
-        <v>275</v>
-      </c>
-      <c r="L88" s="306"/>
-      <c r="N88" s="292"/>
+      <c r="K88" s="233" t="s">
+        <v>274</v>
+      </c>
+      <c r="L88" s="262"/>
+      <c r="N88" s="248"/>
       <c r="O88" s="8"/>
       <c r="P88" s="49">
         <f t="shared" si="62"/>
@@ -23182,15 +23210,15 @@
       <c r="H89" s="8">
         <v>926</v>
       </c>
-      <c r="I89" s="284"/>
-      <c r="J89" s="322" t="s">
+      <c r="I89" s="240"/>
+      <c r="J89" s="278" t="s">
         <v>200</v>
       </c>
-      <c r="K89" s="323" t="s">
-        <v>276</v>
-      </c>
-      <c r="L89" s="324"/>
-      <c r="N89" s="292"/>
+      <c r="K89" s="279" t="s">
+        <v>275</v>
+      </c>
+      <c r="L89" s="280"/>
+      <c r="N89" s="248"/>
       <c r="O89" s="8"/>
       <c r="P89" s="49">
         <f t="shared" si="62"/>
@@ -23907,44 +23935,44 @@
       <c r="B93" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="C93" s="271"/>
-      <c r="D93" s="263" t="s">
+      <c r="C93" s="227"/>
+      <c r="D93" s="305" t="s">
         <v>96</v>
       </c>
-      <c r="E93" s="263" t="s">
+      <c r="E93" s="305" t="s">
         <v>142</v>
       </c>
-      <c r="F93" s="269" t="s">
+      <c r="F93" s="311" t="s">
         <v>1</v>
       </c>
-      <c r="G93" s="267" t="s">
+      <c r="G93" s="309" t="s">
         <v>115</v>
       </c>
-      <c r="H93" s="265" t="s">
+      <c r="H93" s="307" t="s">
         <v>103</v>
       </c>
-      <c r="I93" s="326" t="s">
+      <c r="I93" s="315" t="s">
         <v>151</v>
       </c>
-      <c r="J93" s="298" t="s">
+      <c r="J93" s="254" t="s">
         <v>198</v>
       </c>
-      <c r="K93" s="298" t="s">
+      <c r="K93" s="254" t="s">
         <v>202</v>
       </c>
-      <c r="L93" s="299" t="s">
-        <v>208</v>
-      </c>
-      <c r="M93" s="334" t="s">
+      <c r="L93" s="255" t="s">
+        <v>300</v>
+      </c>
+      <c r="M93" s="313" t="s">
         <v>171</v>
       </c>
-      <c r="N93" s="250" t="s">
+      <c r="N93" s="324" t="s">
         <v>173</v>
       </c>
-      <c r="O93" s="265" t="s">
+      <c r="O93" s="307" t="s">
         <v>172</v>
       </c>
-      <c r="P93" s="267" t="s">
+      <c r="P93" s="309" t="s">
         <v>158</v>
       </c>
       <c r="Q93" s="124">
@@ -23980,139 +24008,139 @@
       <c r="AA93" s="118">
         <v>1999</v>
       </c>
-      <c r="AB93" s="232" t="s">
+      <c r="AB93" s="332" t="s">
         <v>125</v>
       </c>
-      <c r="AC93" s="242">
+      <c r="AC93" s="334">
         <v>2000</v>
       </c>
-      <c r="AD93" s="232" t="s">
+      <c r="AD93" s="332" t="s">
         <v>126</v>
       </c>
-      <c r="AE93" s="242">
+      <c r="AE93" s="334">
         <v>2001</v>
       </c>
-      <c r="AF93" s="232" t="s">
+      <c r="AF93" s="332" t="s">
         <v>127</v>
       </c>
-      <c r="AG93" s="242">
+      <c r="AG93" s="334">
         <v>2002</v>
       </c>
-      <c r="AH93" s="232" t="s">
+      <c r="AH93" s="332" t="s">
         <v>128</v>
       </c>
-      <c r="AI93" s="242">
+      <c r="AI93" s="334">
         <v>2003</v>
       </c>
-      <c r="AJ93" s="232" t="s">
+      <c r="AJ93" s="332" t="s">
         <v>129</v>
       </c>
-      <c r="AK93" s="236">
+      <c r="AK93" s="345">
         <v>2004</v>
       </c>
-      <c r="AL93" s="238" t="s">
+      <c r="AL93" s="347" t="s">
         <v>130</v>
       </c>
-      <c r="AM93" s="240">
+      <c r="AM93" s="349">
         <v>2005</v>
       </c>
-      <c r="AN93" s="232" t="s">
+      <c r="AN93" s="332" t="s">
         <v>131</v>
       </c>
-      <c r="AO93" s="234">
+      <c r="AO93" s="328">
         <v>2006</v>
       </c>
-      <c r="AP93" s="229" t="s">
+      <c r="AP93" s="330" t="s">
         <v>132</v>
       </c>
-      <c r="AQ93" s="234">
+      <c r="AQ93" s="328">
         <v>2007</v>
       </c>
-      <c r="AR93" s="229" t="s">
+      <c r="AR93" s="330" t="s">
         <v>133</v>
       </c>
-      <c r="AS93" s="234">
+      <c r="AS93" s="328">
         <v>2008</v>
       </c>
-      <c r="AT93" s="229" t="s">
+      <c r="AT93" s="330" t="s">
         <v>134</v>
       </c>
-      <c r="AU93" s="234">
+      <c r="AU93" s="328">
         <v>2009</v>
       </c>
-      <c r="AV93" s="229" t="s">
+      <c r="AV93" s="330" t="s">
         <v>135</v>
       </c>
-      <c r="AW93" s="234" t="s">
+      <c r="AW93" s="328" t="s">
         <v>114</v>
       </c>
-      <c r="AX93" s="229" t="s">
+      <c r="AX93" s="330" t="s">
         <v>136</v>
       </c>
-      <c r="AY93" s="234" t="s">
+      <c r="AY93" s="328" t="s">
         <v>154</v>
       </c>
-      <c r="AZ93" s="229" t="s">
+      <c r="AZ93" s="330" t="s">
         <v>144</v>
       </c>
-      <c r="BA93" s="234" t="s">
+      <c r="BA93" s="328" t="s">
         <v>155</v>
       </c>
-      <c r="BB93" s="229" t="s">
+      <c r="BB93" s="330" t="s">
         <v>145</v>
       </c>
-      <c r="BC93" s="234" t="s">
+      <c r="BC93" s="328" t="s">
         <v>156</v>
       </c>
-      <c r="BD93" s="229" t="s">
+      <c r="BD93" s="330" t="s">
         <v>146</v>
       </c>
-      <c r="BE93" s="248" t="s">
+      <c r="BE93" s="340" t="s">
         <v>170</v>
       </c>
-      <c r="BF93" s="229" t="s">
+      <c r="BF93" s="330" t="s">
         <v>137</v>
       </c>
-      <c r="BG93" s="227" t="s">
+      <c r="BG93" s="342" t="s">
         <v>180</v>
       </c>
-      <c r="BH93" s="229" t="s">
+      <c r="BH93" s="330" t="s">
         <v>179</v>
       </c>
-      <c r="BI93" s="227" t="s">
+      <c r="BI93" s="342" t="s">
         <v>183</v>
       </c>
-      <c r="BJ93" s="229" t="s">
+      <c r="BJ93" s="330" t="s">
         <v>182</v>
       </c>
-      <c r="BK93" s="227" t="s">
+      <c r="BK93" s="342" t="s">
         <v>185</v>
       </c>
-      <c r="BL93" s="229" t="s">
+      <c r="BL93" s="330" t="s">
         <v>184</v>
       </c>
-      <c r="BM93" s="227" t="s">
+      <c r="BM93" s="342" t="s">
         <v>191</v>
       </c>
-      <c r="BN93" s="229" t="s">
+      <c r="BN93" s="330" t="s">
         <v>190</v>
       </c>
-      <c r="BO93" s="227" t="s">
+      <c r="BO93" s="342" t="s">
         <v>193</v>
       </c>
-      <c r="BP93" s="229" t="s">
+      <c r="BP93" s="330" t="s">
         <v>192</v>
       </c>
-      <c r="BQ93" s="227" t="s">
+      <c r="BQ93" s="342" t="s">
         <v>195</v>
       </c>
-      <c r="BR93" s="229" t="s">
+      <c r="BR93" s="330" t="s">
         <v>194</v>
       </c>
-      <c r="BS93" s="242" t="s">
+      <c r="BS93" s="334" t="s">
         <v>177</v>
       </c>
-      <c r="BT93" s="232" t="s">
+      <c r="BT93" s="332" t="s">
         <v>178</v>
       </c>
       <c r="BU93" s="11"/>
@@ -24121,20 +24149,20 @@
     <row r="94" spans="1:75" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="44"/>
       <c r="B94" s="43"/>
-      <c r="C94" s="272"/>
-      <c r="D94" s="264"/>
-      <c r="E94" s="264"/>
-      <c r="F94" s="270"/>
-      <c r="G94" s="268"/>
-      <c r="H94" s="266"/>
-      <c r="I94" s="327"/>
-      <c r="J94" s="344"/>
-      <c r="K94" s="319"/>
-      <c r="L94" s="320"/>
-      <c r="M94" s="335"/>
-      <c r="N94" s="251"/>
-      <c r="O94" s="266"/>
-      <c r="P94" s="268"/>
+      <c r="C94" s="228"/>
+      <c r="D94" s="306"/>
+      <c r="E94" s="306"/>
+      <c r="F94" s="312"/>
+      <c r="G94" s="310"/>
+      <c r="H94" s="308"/>
+      <c r="I94" s="316"/>
+      <c r="J94" s="291"/>
+      <c r="K94" s="275"/>
+      <c r="L94" s="276"/>
+      <c r="M94" s="314"/>
+      <c r="N94" s="325"/>
+      <c r="O94" s="308"/>
+      <c r="P94" s="310"/>
       <c r="Q94" s="113"/>
       <c r="R94" s="65"/>
       <c r="S94" s="119"/>
@@ -24146,51 +24174,51 @@
       <c r="Y94" s="119"/>
       <c r="Z94" s="117"/>
       <c r="AA94" s="119"/>
-      <c r="AB94" s="233"/>
-      <c r="AC94" s="243"/>
-      <c r="AD94" s="233"/>
-      <c r="AE94" s="243"/>
-      <c r="AF94" s="233"/>
-      <c r="AG94" s="243"/>
-      <c r="AH94" s="233"/>
-      <c r="AI94" s="243"/>
-      <c r="AJ94" s="233"/>
-      <c r="AK94" s="237"/>
-      <c r="AL94" s="239"/>
-      <c r="AM94" s="241"/>
-      <c r="AN94" s="233"/>
-      <c r="AO94" s="235"/>
-      <c r="AP94" s="231"/>
-      <c r="AQ94" s="235"/>
-      <c r="AR94" s="246"/>
-      <c r="AS94" s="245"/>
-      <c r="AT94" s="246"/>
-      <c r="AU94" s="245"/>
-      <c r="AV94" s="246"/>
-      <c r="AW94" s="245"/>
-      <c r="AX94" s="246"/>
-      <c r="AY94" s="245"/>
-      <c r="AZ94" s="231"/>
-      <c r="BA94" s="235"/>
-      <c r="BB94" s="231"/>
-      <c r="BC94" s="235"/>
-      <c r="BD94" s="231"/>
-      <c r="BE94" s="249"/>
-      <c r="BF94" s="231"/>
-      <c r="BG94" s="230"/>
-      <c r="BH94" s="231"/>
-      <c r="BI94" s="230"/>
-      <c r="BJ94" s="231"/>
-      <c r="BK94" s="228"/>
-      <c r="BL94" s="228"/>
-      <c r="BM94" s="228"/>
-      <c r="BN94" s="228"/>
-      <c r="BO94" s="230"/>
-      <c r="BP94" s="231"/>
-      <c r="BQ94" s="230"/>
-      <c r="BR94" s="231"/>
-      <c r="BS94" s="247"/>
-      <c r="BT94" s="244"/>
+      <c r="AB94" s="333"/>
+      <c r="AC94" s="335"/>
+      <c r="AD94" s="333"/>
+      <c r="AE94" s="335"/>
+      <c r="AF94" s="333"/>
+      <c r="AG94" s="335"/>
+      <c r="AH94" s="333"/>
+      <c r="AI94" s="335"/>
+      <c r="AJ94" s="333"/>
+      <c r="AK94" s="346"/>
+      <c r="AL94" s="348"/>
+      <c r="AM94" s="350"/>
+      <c r="AN94" s="333"/>
+      <c r="AO94" s="336"/>
+      <c r="AP94" s="337"/>
+      <c r="AQ94" s="336"/>
+      <c r="AR94" s="331"/>
+      <c r="AS94" s="329"/>
+      <c r="AT94" s="331"/>
+      <c r="AU94" s="329"/>
+      <c r="AV94" s="331"/>
+      <c r="AW94" s="329"/>
+      <c r="AX94" s="331"/>
+      <c r="AY94" s="329"/>
+      <c r="AZ94" s="337"/>
+      <c r="BA94" s="336"/>
+      <c r="BB94" s="337"/>
+      <c r="BC94" s="336"/>
+      <c r="BD94" s="337"/>
+      <c r="BE94" s="341"/>
+      <c r="BF94" s="337"/>
+      <c r="BG94" s="343"/>
+      <c r="BH94" s="337"/>
+      <c r="BI94" s="343"/>
+      <c r="BJ94" s="337"/>
+      <c r="BK94" s="344"/>
+      <c r="BL94" s="344"/>
+      <c r="BM94" s="344"/>
+      <c r="BN94" s="344"/>
+      <c r="BO94" s="343"/>
+      <c r="BP94" s="337"/>
+      <c r="BQ94" s="343"/>
+      <c r="BR94" s="337"/>
+      <c r="BS94" s="339"/>
+      <c r="BT94" s="338"/>
       <c r="BU94" s="11"/>
       <c r="BV94" s="102"/>
     </row>
@@ -24218,24 +24246,24 @@
       <c r="H95" s="8">
         <v>589</v>
       </c>
-      <c r="I95" s="328">
+      <c r="I95" s="282">
         <f>H95</f>
         <v>589</v>
       </c>
-      <c r="J95" s="305" t="s">
+      <c r="J95" s="261" t="s">
         <v>200</v>
       </c>
-      <c r="K95" s="319" t="s">
-        <v>277</v>
-      </c>
-      <c r="L95" s="320"/>
-      <c r="M95" s="336" t="s">
+      <c r="K95" s="275" t="s">
+        <v>276</v>
+      </c>
+      <c r="L95" s="276"/>
+      <c r="M95" s="288" t="s">
         <v>176</v>
       </c>
       <c r="N95" s="169" t="s">
         <v>176</v>
       </c>
-      <c r="O95" s="254">
+      <c r="O95" s="320">
         <v>1418</v>
       </c>
       <c r="P95" s="49">
@@ -24468,25 +24496,25 @@
       <c r="H96" s="11">
         <v>829</v>
       </c>
-      <c r="I96" s="329">
+      <c r="I96" s="283">
         <f>H96</f>
         <v>829</v>
       </c>
-      <c r="J96" s="309" t="s">
+      <c r="J96" s="265" t="s">
         <v>200</v>
       </c>
-      <c r="K96" s="307" t="s">
-        <v>284</v>
-      </c>
-      <c r="L96" s="320"/>
-      <c r="M96" s="337">
+      <c r="K96" s="263" t="s">
+        <v>283</v>
+      </c>
+      <c r="L96" s="276"/>
+      <c r="M96" s="289">
         <v>829</v>
       </c>
       <c r="N96" s="170">
         <f>(M96*E96)</f>
         <v>688.06999999999994</v>
       </c>
-      <c r="O96" s="255"/>
+      <c r="O96" s="321"/>
       <c r="P96" s="49">
         <f>PRODUCT(E96,H96)</f>
         <v>688.06999999999994</v>
@@ -24692,7 +24720,7 @@
       <c r="BV96" s="102"/>
       <c r="BW96" s="5"/>
     </row>
-    <row r="97" spans="1:75" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A97" s="10">
         <v>7</v>
       </c>
@@ -24716,25 +24744,25 @@
       <c r="H97" s="18">
         <v>219</v>
       </c>
-      <c r="I97" s="330">
+      <c r="I97" s="284">
         <f>H97</f>
         <v>219</v>
       </c>
-      <c r="J97" s="305" t="s">
+      <c r="J97" s="261" t="s">
         <v>200</v>
       </c>
-      <c r="K97" s="325" t="s">
-        <v>285</v>
-      </c>
-      <c r="L97" s="314"/>
-      <c r="M97" s="338">
+      <c r="K97" s="281" t="s">
+        <v>284</v>
+      </c>
+      <c r="L97" s="270"/>
+      <c r="M97" s="322">
         <v>3600</v>
       </c>
-      <c r="N97" s="252">
+      <c r="N97" s="326">
         <f>(M97*E97)</f>
         <v>2988</v>
       </c>
-      <c r="O97" s="254">
+      <c r="O97" s="320">
         <v>1650</v>
       </c>
       <c r="P97" s="49">
@@ -24967,20 +24995,20 @@
       <c r="H98" s="8">
         <v>131</v>
       </c>
-      <c r="I98" s="328">
+      <c r="I98" s="282">
         <f>H98</f>
         <v>131</v>
       </c>
-      <c r="J98" s="309" t="s">
+      <c r="J98" s="265" t="s">
         <v>200</v>
       </c>
-      <c r="K98" s="310" t="s">
-        <v>278</v>
-      </c>
-      <c r="L98" s="320"/>
-      <c r="M98" s="339"/>
-      <c r="N98" s="253"/>
-      <c r="O98" s="255"/>
+      <c r="K98" s="266" t="s">
+        <v>277</v>
+      </c>
+      <c r="L98" s="276"/>
+      <c r="M98" s="323"/>
+      <c r="N98" s="327"/>
+      <c r="O98" s="321"/>
       <c r="P98" s="49">
         <f>PRODUCT(E98,H98)</f>
         <v>108.72999999999999</v>
@@ -25200,13 +25228,13 @@
       <c r="F99" s="2"/>
       <c r="G99" s="70"/>
       <c r="H99" s="8"/>
-      <c r="I99" s="331">
+      <c r="I99" s="285">
         <v>4429</v>
       </c>
-      <c r="J99" s="345"/>
-      <c r="K99" s="319"/>
-      <c r="L99" s="320"/>
-      <c r="M99" s="340" t="s">
+      <c r="J99" s="292"/>
+      <c r="K99" s="275"/>
+      <c r="L99" s="276"/>
+      <c r="M99" s="290" t="s">
         <v>175</v>
       </c>
       <c r="N99" s="172" t="s">
@@ -25352,18 +25380,18 @@
       <c r="H100" s="8">
         <v>13</v>
       </c>
-      <c r="I100" s="284">
+      <c r="I100" s="240">
         <f>H100</f>
         <v>13</v>
       </c>
-      <c r="J100" s="305" t="s">
+      <c r="J100" s="261" t="s">
         <v>200</v>
       </c>
-      <c r="K100" s="303" t="s">
-        <v>293</v>
-      </c>
-      <c r="L100" s="320"/>
-      <c r="M100" s="341">
+      <c r="K100" s="259" t="s">
+        <v>292</v>
+      </c>
+      <c r="L100" s="276"/>
+      <c r="M100" s="317">
         <v>52275</v>
       </c>
       <c r="N100" s="164"/>
@@ -25598,18 +25626,20 @@
       <c r="H101" s="11">
         <v>17903</v>
       </c>
-      <c r="I101" s="332">
+      <c r="I101" s="286">
         <f t="shared" ref="I101:I106" si="115">F101-F101*51.2%</f>
         <v>21052.32</v>
       </c>
-      <c r="J101" s="317" t="s">
+      <c r="J101" s="273" t="s">
         <v>199</v>
       </c>
-      <c r="K101" s="303" t="s">
-        <v>294</v>
-      </c>
-      <c r="L101" s="320"/>
-      <c r="M101" s="342"/>
+      <c r="K101" s="259" t="s">
+        <v>293</v>
+      </c>
+      <c r="L101" s="270" t="s">
+        <v>200</v>
+      </c>
+      <c r="M101" s="318"/>
       <c r="N101" s="163"/>
       <c r="O101" s="94"/>
       <c r="P101" s="49">
@@ -25842,18 +25872,18 @@
       <c r="H102" s="8">
         <v>11881</v>
       </c>
-      <c r="I102" s="333">
+      <c r="I102" s="287">
         <f t="shared" si="115"/>
         <v>13971.44</v>
       </c>
-      <c r="J102" s="317" t="s">
+      <c r="J102" s="273" t="s">
         <v>200</v>
       </c>
-      <c r="K102" s="303" t="s">
-        <v>295</v>
-      </c>
-      <c r="L102" s="320"/>
-      <c r="M102" s="342"/>
+      <c r="K102" s="259" t="s">
+        <v>294</v>
+      </c>
+      <c r="L102" s="276"/>
+      <c r="M102" s="318"/>
       <c r="N102" s="165"/>
       <c r="O102" s="93"/>
       <c r="P102" s="49">
@@ -26086,18 +26116,18 @@
       <c r="H103" s="8">
         <v>7167</v>
       </c>
-      <c r="I103" s="333">
+      <c r="I103" s="287">
         <f t="shared" si="115"/>
         <v>8427.76</v>
       </c>
-      <c r="J103" s="317" t="s">
+      <c r="J103" s="273" t="s">
         <v>200</v>
       </c>
-      <c r="K103" s="303" t="s">
-        <v>296</v>
-      </c>
-      <c r="L103" s="320"/>
-      <c r="M103" s="342"/>
+      <c r="K103" s="259" t="s">
+        <v>295</v>
+      </c>
+      <c r="L103" s="276"/>
+      <c r="M103" s="318"/>
       <c r="N103" s="171">
         <f>(M100*E103)</f>
         <v>10977.75</v>
@@ -26332,18 +26362,18 @@
       <c r="H104" s="8">
         <v>2847</v>
       </c>
-      <c r="I104" s="333">
+      <c r="I104" s="287">
         <f t="shared" si="115"/>
         <v>3347.68</v>
       </c>
-      <c r="J104" s="317" t="s">
+      <c r="J104" s="273" t="s">
         <v>200</v>
       </c>
-      <c r="K104" s="303" t="s">
-        <v>297</v>
-      </c>
-      <c r="L104" s="320"/>
-      <c r="M104" s="342"/>
+      <c r="K104" s="259" t="s">
+        <v>296</v>
+      </c>
+      <c r="L104" s="276"/>
+      <c r="M104" s="318"/>
       <c r="N104" s="165"/>
       <c r="O104" s="93"/>
       <c r="P104" s="49">
@@ -26575,18 +26605,20 @@
       <c r="H105" s="11">
         <v>18787</v>
       </c>
-      <c r="I105" s="332">
+      <c r="I105" s="286">
         <f t="shared" si="115"/>
         <v>22091.759999999998</v>
       </c>
-      <c r="J105" s="317" t="s">
+      <c r="J105" s="273" t="s">
         <v>199</v>
       </c>
-      <c r="K105" s="303" t="s">
-        <v>298</v>
-      </c>
-      <c r="L105" s="320"/>
-      <c r="M105" s="342"/>
+      <c r="K105" s="259" t="s">
+        <v>297</v>
+      </c>
+      <c r="L105" s="270" t="s">
+        <v>200</v>
+      </c>
+      <c r="M105" s="318"/>
       <c r="N105" s="163"/>
       <c r="O105" s="94"/>
       <c r="P105" s="49">
@@ -26818,18 +26850,20 @@
       <c r="H106" s="8">
         <v>1913</v>
       </c>
-      <c r="I106" s="333">
+      <c r="I106" s="287">
         <f t="shared" si="115"/>
         <v>2249.6799999999998</v>
       </c>
-      <c r="J106" s="309" t="s">
+      <c r="J106" s="265" t="s">
         <v>199</v>
       </c>
-      <c r="K106" s="303" t="s">
-        <v>299</v>
-      </c>
-      <c r="L106" s="320"/>
-      <c r="M106" s="343"/>
+      <c r="K106" s="259" t="s">
+        <v>298</v>
+      </c>
+      <c r="L106" s="270" t="s">
+        <v>200</v>
+      </c>
+      <c r="M106" s="319"/>
       <c r="N106" s="165"/>
       <c r="O106" s="93"/>
       <c r="P106" s="49">
@@ -27061,18 +27095,18 @@
       <c r="H107" s="11">
         <v>77</v>
       </c>
-      <c r="I107" s="286">
+      <c r="I107" s="242">
         <f t="shared" ref="I107:I118" si="116">H107</f>
         <v>77</v>
       </c>
-      <c r="J107" s="309" t="s">
+      <c r="J107" s="265" t="s">
         <v>200</v>
       </c>
-      <c r="K107" s="319" t="s">
-        <v>279</v>
-      </c>
-      <c r="L107" s="320"/>
-      <c r="M107" s="293"/>
+      <c r="K107" s="275" t="s">
+        <v>278</v>
+      </c>
+      <c r="L107" s="276"/>
+      <c r="M107" s="249"/>
       <c r="N107" s="166"/>
       <c r="O107" s="11"/>
       <c r="P107" s="49">
@@ -27279,7 +27313,7 @@
       <c r="BV107" s="102"/>
       <c r="BW107" s="5"/>
     </row>
-    <row r="108" spans="1:75" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A108" s="10">
         <v>10</v>
       </c>
@@ -27303,18 +27337,18 @@
       <c r="H108" s="8">
         <v>323</v>
       </c>
-      <c r="I108" s="284">
+      <c r="I108" s="240">
         <f t="shared" si="116"/>
         <v>323</v>
       </c>
-      <c r="J108" s="302" t="s">
+      <c r="J108" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K108" s="325" t="s">
-        <v>280</v>
-      </c>
-      <c r="L108" s="320"/>
-      <c r="M108" s="292"/>
+      <c r="K108" s="281" t="s">
+        <v>279</v>
+      </c>
+      <c r="L108" s="276"/>
+      <c r="M108" s="248"/>
       <c r="N108" s="164"/>
       <c r="O108" s="8"/>
       <c r="P108" s="49">
@@ -27545,18 +27579,20 @@
       <c r="H109" s="11">
         <v>165</v>
       </c>
-      <c r="I109" s="286">
+      <c r="I109" s="242">
         <f t="shared" si="116"/>
         <v>165</v>
       </c>
-      <c r="J109" s="309" t="s">
+      <c r="J109" s="265" t="s">
         <v>200</v>
       </c>
-      <c r="K109" s="319" t="s">
-        <v>282</v>
-      </c>
-      <c r="L109" s="320"/>
-      <c r="M109" s="293"/>
+      <c r="K109" s="275" t="s">
+        <v>281</v>
+      </c>
+      <c r="L109" s="270" t="s">
+        <v>200</v>
+      </c>
+      <c r="M109" s="249"/>
       <c r="N109" s="166"/>
       <c r="O109" s="11"/>
       <c r="P109" s="49">
@@ -27787,18 +27823,20 @@
       <c r="H110" s="8">
         <v>77</v>
       </c>
-      <c r="I110" s="284">
+      <c r="I110" s="240">
         <f t="shared" si="116"/>
         <v>77</v>
       </c>
-      <c r="J110" s="302" t="s">
+      <c r="J110" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K110" s="319" t="s">
-        <v>281</v>
-      </c>
-      <c r="L110" s="320"/>
-      <c r="M110" s="292"/>
+      <c r="K110" s="275" t="s">
+        <v>280</v>
+      </c>
+      <c r="L110" s="270" t="s">
+        <v>200</v>
+      </c>
+      <c r="M110" s="248"/>
       <c r="N110" s="164"/>
       <c r="O110" s="8"/>
       <c r="P110" s="49">
@@ -28001,7 +28039,7 @@
       <c r="BV110" s="102"/>
       <c r="BW110" s="5"/>
     </row>
-    <row r="111" spans="1:75" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A111" s="10">
         <v>10</v>
       </c>
@@ -28025,18 +28063,20 @@
       <c r="H111" s="8">
         <v>80</v>
       </c>
-      <c r="I111" s="284">
+      <c r="I111" s="240">
         <f t="shared" si="116"/>
         <v>80</v>
       </c>
-      <c r="J111" s="302" t="s">
+      <c r="J111" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K111" s="325" t="s">
-        <v>283</v>
-      </c>
-      <c r="L111" s="320"/>
-      <c r="M111" s="292"/>
+      <c r="K111" s="281" t="s">
+        <v>282</v>
+      </c>
+      <c r="L111" s="270" t="s">
+        <v>200</v>
+      </c>
+      <c r="M111" s="248"/>
       <c r="N111" s="164"/>
       <c r="O111" s="8"/>
       <c r="P111" s="49">
@@ -28269,18 +28309,20 @@
       <c r="H112" s="8">
         <v>237</v>
       </c>
-      <c r="I112" s="284">
+      <c r="I112" s="240">
         <f t="shared" si="116"/>
         <v>237</v>
       </c>
-      <c r="J112" s="302" t="s">
+      <c r="J112" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K112" s="319" t="s">
-        <v>287</v>
-      </c>
-      <c r="L112" s="320"/>
-      <c r="M112" s="292"/>
+      <c r="K112" s="275" t="s">
+        <v>286</v>
+      </c>
+      <c r="L112" s="270" t="s">
+        <v>200</v>
+      </c>
+      <c r="M112" s="248"/>
       <c r="N112" s="164"/>
       <c r="O112" s="8"/>
       <c r="P112" s="49">
@@ -28511,18 +28553,20 @@
       <c r="H113" s="17">
         <v>11</v>
       </c>
-      <c r="I113" s="288">
+      <c r="I113" s="244">
         <f t="shared" si="116"/>
         <v>11</v>
       </c>
-      <c r="J113" s="317" t="s">
+      <c r="J113" s="273" t="s">
         <v>200</v>
       </c>
-      <c r="K113" s="319" t="s">
-        <v>289</v>
-      </c>
-      <c r="L113" s="320"/>
-      <c r="M113" s="296"/>
+      <c r="K113" s="275" t="s">
+        <v>288</v>
+      </c>
+      <c r="L113" s="270" t="s">
+        <v>200</v>
+      </c>
+      <c r="M113" s="252"/>
       <c r="N113" s="167"/>
       <c r="O113" s="17"/>
       <c r="P113" s="49">
@@ -28753,18 +28797,18 @@
       <c r="H114" s="18">
         <v>40</v>
       </c>
-      <c r="I114" s="285">
+      <c r="I114" s="241">
         <f t="shared" si="116"/>
         <v>40</v>
       </c>
-      <c r="J114" s="305" t="s">
+      <c r="J114" s="261" t="s">
         <v>200</v>
       </c>
-      <c r="K114" s="319" t="s">
-        <v>288</v>
-      </c>
-      <c r="L114" s="320"/>
-      <c r="M114" s="297"/>
+      <c r="K114" s="275" t="s">
+        <v>287</v>
+      </c>
+      <c r="L114" s="276"/>
+      <c r="M114" s="253"/>
       <c r="N114" s="168"/>
       <c r="O114" s="18"/>
       <c r="P114" s="49">
@@ -28968,7 +29012,7 @@
       <c r="BV114" s="102"/>
       <c r="BW114" s="5"/>
     </row>
-    <row r="115" spans="1:75" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>92</v>
       </c>
@@ -28992,18 +29036,18 @@
       <c r="H115" s="18">
         <v>39</v>
       </c>
-      <c r="I115" s="285">
+      <c r="I115" s="241">
         <f t="shared" si="116"/>
         <v>39</v>
       </c>
-      <c r="J115" s="305" t="s">
+      <c r="J115" s="261" t="s">
         <v>200</v>
       </c>
-      <c r="K115" s="325" t="s">
-        <v>286</v>
-      </c>
-      <c r="L115" s="320"/>
-      <c r="M115" s="297"/>
+      <c r="K115" s="281" t="s">
+        <v>285</v>
+      </c>
+      <c r="L115" s="276"/>
+      <c r="M115" s="253"/>
       <c r="N115" s="168"/>
       <c r="O115" s="18"/>
       <c r="P115" s="49">
@@ -29234,18 +29278,18 @@
       <c r="H116" s="18">
         <v>87</v>
       </c>
-      <c r="I116" s="285">
+      <c r="I116" s="241">
         <f t="shared" si="116"/>
         <v>87</v>
       </c>
-      <c r="J116" s="305" t="s">
+      <c r="J116" s="261" t="s">
         <v>200</v>
       </c>
-      <c r="K116" s="319" t="s">
-        <v>290</v>
-      </c>
-      <c r="L116" s="320"/>
-      <c r="M116" s="297"/>
+      <c r="K116" s="275" t="s">
+        <v>289</v>
+      </c>
+      <c r="L116" s="276"/>
+      <c r="M116" s="253"/>
       <c r="N116" s="168"/>
       <c r="O116" s="18"/>
       <c r="P116" s="49">
@@ -29476,18 +29520,18 @@
       <c r="H117" s="8">
         <v>26</v>
       </c>
-      <c r="I117" s="284">
+      <c r="I117" s="240">
         <f t="shared" si="116"/>
         <v>26</v>
       </c>
-      <c r="J117" s="302" t="s">
+      <c r="J117" s="258" t="s">
         <v>200</v>
       </c>
-      <c r="K117" s="319" t="s">
-        <v>291</v>
-      </c>
-      <c r="L117" s="320"/>
-      <c r="M117" s="292"/>
+      <c r="K117" s="275" t="s">
+        <v>290</v>
+      </c>
+      <c r="L117" s="276"/>
+      <c r="M117" s="248"/>
       <c r="N117" s="164"/>
       <c r="O117" s="8"/>
       <c r="P117" s="49">
@@ -29715,18 +29759,18 @@
       <c r="H118" s="17">
         <v>10</v>
       </c>
-      <c r="I118" s="284">
+      <c r="I118" s="240">
         <f t="shared" si="116"/>
         <v>10</v>
       </c>
-      <c r="J118" s="322" t="s">
+      <c r="J118" s="278" t="s">
         <v>200</v>
       </c>
-      <c r="K118" s="346" t="s">
-        <v>292</v>
-      </c>
-      <c r="L118" s="347"/>
-      <c r="M118" s="292"/>
+      <c r="K118" s="293" t="s">
+        <v>291</v>
+      </c>
+      <c r="L118" s="294"/>
+      <c r="M118" s="248"/>
       <c r="N118" s="164"/>
       <c r="O118" s="8"/>
       <c r="P118" s="49">
@@ -30690,24 +30734,24 @@
       </c>
     </row>
     <row r="122" spans="1:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="259" t="s">
+      <c r="A122" s="301" t="s">
         <v>162</v>
       </c>
-      <c r="B122" s="260"/>
-      <c r="C122" s="260"/>
-      <c r="D122" s="260"/>
-      <c r="E122" s="260"/>
-      <c r="F122" s="260"/>
-      <c r="G122" s="260"/>
-      <c r="H122" s="260"/>
-      <c r="I122" s="260"/>
-      <c r="J122" s="260"/>
-      <c r="K122" s="260"/>
-      <c r="L122" s="260"/>
-      <c r="M122" s="260"/>
-      <c r="N122" s="260"/>
-      <c r="O122" s="260"/>
-      <c r="P122" s="260"/>
+      <c r="B122" s="302"/>
+      <c r="C122" s="302"/>
+      <c r="D122" s="302"/>
+      <c r="E122" s="302"/>
+      <c r="F122" s="302"/>
+      <c r="G122" s="302"/>
+      <c r="H122" s="302"/>
+      <c r="I122" s="302"/>
+      <c r="J122" s="302"/>
+      <c r="K122" s="302"/>
+      <c r="L122" s="302"/>
+      <c r="M122" s="302"/>
+      <c r="N122" s="302"/>
+      <c r="O122" s="302"/>
+      <c r="P122" s="302"/>
       <c r="Q122" s="112"/>
       <c r="R122" s="112"/>
       <c r="S122" s="5" t="s">
@@ -30832,24 +30876,24 @@
       <c r="BT122" s="106"/>
     </row>
     <row r="123" spans="1:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="261" t="s">
+      <c r="A123" s="303" t="s">
         <v>161</v>
       </c>
-      <c r="B123" s="262"/>
-      <c r="C123" s="262"/>
-      <c r="D123" s="262"/>
-      <c r="E123" s="262"/>
-      <c r="F123" s="262"/>
-      <c r="G123" s="262"/>
-      <c r="H123" s="262"/>
-      <c r="I123" s="262"/>
-      <c r="J123" s="262"/>
-      <c r="K123" s="262"/>
-      <c r="L123" s="262"/>
-      <c r="M123" s="262"/>
-      <c r="N123" s="262"/>
-      <c r="O123" s="262"/>
-      <c r="P123" s="262"/>
+      <c r="B123" s="304"/>
+      <c r="C123" s="304"/>
+      <c r="D123" s="304"/>
+      <c r="E123" s="304"/>
+      <c r="F123" s="304"/>
+      <c r="G123" s="304"/>
+      <c r="H123" s="304"/>
+      <c r="I123" s="304"/>
+      <c r="J123" s="304"/>
+      <c r="K123" s="304"/>
+      <c r="L123" s="304"/>
+      <c r="M123" s="304"/>
+      <c r="N123" s="304"/>
+      <c r="O123" s="304"/>
+      <c r="P123" s="304"/>
       <c r="Q123" s="121"/>
       <c r="R123" s="121"/>
       <c r="S123" s="121"/>
@@ -30979,24 +31023,24 @@
       </c>
     </row>
     <row r="124" spans="1:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="258" t="s">
+      <c r="A124" s="300" t="s">
         <v>160</v>
       </c>
-      <c r="B124" s="257"/>
-      <c r="C124" s="257"/>
-      <c r="D124" s="257"/>
-      <c r="E124" s="257"/>
-      <c r="F124" s="257"/>
-      <c r="G124" s="257"/>
-      <c r="H124" s="257"/>
-      <c r="I124" s="257"/>
-      <c r="J124" s="257"/>
-      <c r="K124" s="257"/>
-      <c r="L124" s="257"/>
-      <c r="M124" s="257"/>
-      <c r="N124" s="257"/>
-      <c r="O124" s="257"/>
-      <c r="P124" s="257"/>
+      <c r="B124" s="299"/>
+      <c r="C124" s="299"/>
+      <c r="D124" s="299"/>
+      <c r="E124" s="299"/>
+      <c r="F124" s="299"/>
+      <c r="G124" s="299"/>
+      <c r="H124" s="299"/>
+      <c r="I124" s="299"/>
+      <c r="J124" s="299"/>
+      <c r="K124" s="299"/>
+      <c r="L124" s="299"/>
+      <c r="M124" s="299"/>
+      <c r="N124" s="299"/>
+      <c r="O124" s="299"/>
+      <c r="P124" s="299"/>
       <c r="Q124" s="111"/>
       <c r="R124" s="111"/>
       <c r="AD124" s="106" t="s">
@@ -31064,24 +31108,24 @@
       </c>
     </row>
     <row r="125" spans="1:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="256" t="s">
+      <c r="A125" s="298" t="s">
         <v>159</v>
       </c>
-      <c r="B125" s="257"/>
-      <c r="C125" s="257"/>
-      <c r="D125" s="257"/>
-      <c r="E125" s="257"/>
-      <c r="F125" s="257"/>
-      <c r="G125" s="257"/>
-      <c r="H125" s="257"/>
-      <c r="I125" s="257"/>
-      <c r="J125" s="257"/>
-      <c r="K125" s="257"/>
-      <c r="L125" s="257"/>
-      <c r="M125" s="257"/>
-      <c r="N125" s="257"/>
-      <c r="O125" s="257"/>
-      <c r="P125" s="257"/>
+      <c r="B125" s="299"/>
+      <c r="C125" s="299"/>
+      <c r="D125" s="299"/>
+      <c r="E125" s="299"/>
+      <c r="F125" s="299"/>
+      <c r="G125" s="299"/>
+      <c r="H125" s="299"/>
+      <c r="I125" s="299"/>
+      <c r="J125" s="299"/>
+      <c r="K125" s="299"/>
+      <c r="L125" s="299"/>
+      <c r="M125" s="299"/>
+      <c r="N125" s="299"/>
+      <c r="O125" s="299"/>
+      <c r="P125" s="299"/>
       <c r="AV125" s="96">
         <v>0.52</v>
       </c>
@@ -31132,6 +31176,54 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="64">
+    <mergeCell ref="BM93:BM94"/>
+    <mergeCell ref="BN93:BN94"/>
+    <mergeCell ref="BK93:BK94"/>
+    <mergeCell ref="BO93:BO94"/>
+    <mergeCell ref="BP93:BP94"/>
+    <mergeCell ref="AN93:AN94"/>
+    <mergeCell ref="AO93:AO94"/>
+    <mergeCell ref="BL93:BL94"/>
+    <mergeCell ref="BH93:BH94"/>
+    <mergeCell ref="AD93:AD94"/>
+    <mergeCell ref="AJ93:AJ94"/>
+    <mergeCell ref="AK93:AK94"/>
+    <mergeCell ref="AL93:AL94"/>
+    <mergeCell ref="AM93:AM94"/>
+    <mergeCell ref="AG93:AG94"/>
+    <mergeCell ref="AF93:AF94"/>
+    <mergeCell ref="BT93:BT94"/>
+    <mergeCell ref="AY93:AY94"/>
+    <mergeCell ref="AX93:AX94"/>
+    <mergeCell ref="BS93:BS94"/>
+    <mergeCell ref="AZ93:AZ94"/>
+    <mergeCell ref="BB93:BB94"/>
+    <mergeCell ref="BD93:BD94"/>
+    <mergeCell ref="BA93:BA94"/>
+    <mergeCell ref="BC93:BC94"/>
+    <mergeCell ref="BF93:BF94"/>
+    <mergeCell ref="BE93:BE94"/>
+    <mergeCell ref="BG93:BG94"/>
+    <mergeCell ref="BI93:BI94"/>
+    <mergeCell ref="BJ93:BJ94"/>
+    <mergeCell ref="BQ93:BQ94"/>
+    <mergeCell ref="BR93:BR94"/>
+    <mergeCell ref="N93:N94"/>
+    <mergeCell ref="N97:N98"/>
+    <mergeCell ref="AW93:AW94"/>
+    <mergeCell ref="AR93:AR94"/>
+    <mergeCell ref="AS93:AS94"/>
+    <mergeCell ref="AU93:AU94"/>
+    <mergeCell ref="AH93:AH94"/>
+    <mergeCell ref="AI93:AI94"/>
+    <mergeCell ref="AQ93:AQ94"/>
+    <mergeCell ref="AT93:AT94"/>
+    <mergeCell ref="AV93:AV94"/>
+    <mergeCell ref="O97:O98"/>
+    <mergeCell ref="AE93:AE94"/>
+    <mergeCell ref="AP93:AP94"/>
+    <mergeCell ref="AB93:AB94"/>
+    <mergeCell ref="AC93:AC94"/>
     <mergeCell ref="A125:P125"/>
     <mergeCell ref="A124:P124"/>
     <mergeCell ref="A122:P122"/>
@@ -31148,54 +31240,6 @@
     <mergeCell ref="M100:M106"/>
     <mergeCell ref="O95:O96"/>
     <mergeCell ref="M97:M98"/>
-    <mergeCell ref="N93:N94"/>
-    <mergeCell ref="N97:N98"/>
-    <mergeCell ref="AW93:AW94"/>
-    <mergeCell ref="AR93:AR94"/>
-    <mergeCell ref="AS93:AS94"/>
-    <mergeCell ref="AU93:AU94"/>
-    <mergeCell ref="AH93:AH94"/>
-    <mergeCell ref="AI93:AI94"/>
-    <mergeCell ref="AQ93:AQ94"/>
-    <mergeCell ref="AT93:AT94"/>
-    <mergeCell ref="AV93:AV94"/>
-    <mergeCell ref="O97:O98"/>
-    <mergeCell ref="AE93:AE94"/>
-    <mergeCell ref="AP93:AP94"/>
-    <mergeCell ref="AB93:AB94"/>
-    <mergeCell ref="AC93:AC94"/>
-    <mergeCell ref="BT93:BT94"/>
-    <mergeCell ref="AY93:AY94"/>
-    <mergeCell ref="AX93:AX94"/>
-    <mergeCell ref="BS93:BS94"/>
-    <mergeCell ref="AZ93:AZ94"/>
-    <mergeCell ref="BB93:BB94"/>
-    <mergeCell ref="BD93:BD94"/>
-    <mergeCell ref="BA93:BA94"/>
-    <mergeCell ref="BC93:BC94"/>
-    <mergeCell ref="BF93:BF94"/>
-    <mergeCell ref="BE93:BE94"/>
-    <mergeCell ref="BG93:BG94"/>
-    <mergeCell ref="BI93:BI94"/>
-    <mergeCell ref="BJ93:BJ94"/>
-    <mergeCell ref="BQ93:BQ94"/>
-    <mergeCell ref="BR93:BR94"/>
-    <mergeCell ref="AN93:AN94"/>
-    <mergeCell ref="AO93:AO94"/>
-    <mergeCell ref="BL93:BL94"/>
-    <mergeCell ref="BH93:BH94"/>
-    <mergeCell ref="AD93:AD94"/>
-    <mergeCell ref="AJ93:AJ94"/>
-    <mergeCell ref="AK93:AK94"/>
-    <mergeCell ref="AL93:AL94"/>
-    <mergeCell ref="AM93:AM94"/>
-    <mergeCell ref="AG93:AG94"/>
-    <mergeCell ref="AF93:AF94"/>
-    <mergeCell ref="BM93:BM94"/>
-    <mergeCell ref="BN93:BN94"/>
-    <mergeCell ref="BK93:BK94"/>
-    <mergeCell ref="BO93:BO94"/>
-    <mergeCell ref="BP93:BP94"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J1 J94:J1048576 J3:J92">
@@ -31776,18 +31820,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -32000,6 +32044,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F584D643-EE54-4975-A21E-588FFF6D7962}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B488A6D0-C6B1-4232-B7D8-15A8468BB591}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -32012,14 +32064,6 @@
     <ds:schemaRef ds:uri="2084fb90-2747-4e16-8930-0ebd750713f4"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F584D643-EE54-4975-A21E-588FFF6D7962}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
